--- a/edited_final.xlsx
+++ b/edited_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF51"/>
+  <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>best film editing</t>
+          <t>best cinematography</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -681,57 +681,57 @@
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>original song</t>
+          <t>production design</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>best director</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>best sound editing</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay</t>
+        </is>
+      </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>best picture</t>
+          <t>best visual effects</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>sound editing</t>
+          <t>film editing</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>production design</t>
+          <t>best supporting actress</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>best animated feature</t>
+          <t>best art direction</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>actor in a leading role</t>
+          <t>best film editing</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>sound mixing</t>
+          <t>best animated film</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>best supporting actor</t>
+          <t>animated feature film</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
@@ -741,114 +741,119 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>animated feature film</t>
+          <t>best picture</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>best animated film</t>
+          <t>actor in a leading role</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>cinematography</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>best editing</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>costume design</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>directing</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>sound editing</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>best sound mixing</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>make up and hair styling</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>best director</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>sound mixing</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>actor in a supporting role</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>costume design</t>
+          <t>writing</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>best sound</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>make up and hair styling</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>best cinematography</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>best editing</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>best original screenplay</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>cinematography</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>directing</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>best art direction</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>best supporting actress</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>best actress</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>best original song</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>best adapted screenplay</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>best actor</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>visual effects</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>actress in a supporting role</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>best visual effects</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>film editing</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1103,6 +1108,9 @@
       <c r="CF2" t="n">
         <v>0</v>
       </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1355,6 +1363,9 @@
         <v>0</v>
       </c>
       <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1611,6 +1622,9 @@
       <c r="CF4" t="n">
         <v>0</v>
       </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1865,6 +1879,9 @@
       <c r="CF5" t="n">
         <v>0</v>
       </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2119,6 +2136,9 @@
       <c r="CF6" t="n">
         <v>0</v>
       </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2373,6 +2393,9 @@
       <c r="CF7" t="n">
         <v>0</v>
       </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2627,6 +2650,9 @@
       <c r="CF8" t="n">
         <v>0</v>
       </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2881,6 +2907,9 @@
       <c r="CF9" t="n">
         <v>0</v>
       </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3135,6 +3164,9 @@
       <c r="CF10" t="n">
         <v>0</v>
       </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3389,6 +3421,9 @@
       <c r="CF11" t="n">
         <v>0</v>
       </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3643,6 +3678,9 @@
       <c r="CF12" t="n">
         <v>0</v>
       </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3897,6 +3935,9 @@
       <c r="CF13" t="n">
         <v>0</v>
       </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4151,6 +4192,9 @@
       <c r="CF14" t="n">
         <v>0</v>
       </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -4405,6 +4449,9 @@
       <c r="CF15" t="n">
         <v>0</v>
       </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -4659,6 +4706,9 @@
       <c r="CF16" t="n">
         <v>0</v>
       </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -4913,6 +4963,9 @@
       <c r="CF17" t="n">
         <v>0</v>
       </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5167,6 +5220,9 @@
       <c r="CF18" t="n">
         <v>0</v>
       </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5421,6 +5477,9 @@
       <c r="CF19" t="n">
         <v>0</v>
       </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5675,6 +5734,9 @@
       <c r="CF20" t="n">
         <v>0</v>
       </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -5929,6 +5991,9 @@
       <c r="CF21" t="n">
         <v>0</v>
       </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6183,6 +6248,9 @@
       <c r="CF22" t="n">
         <v>0</v>
       </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6437,6 +6505,9 @@
       <c r="CF23" t="n">
         <v>0</v>
       </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6691,6 +6762,9 @@
       <c r="CF24" t="n">
         <v>0</v>
       </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -6945,6 +7019,9 @@
       <c r="CF25" t="n">
         <v>0</v>
       </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -7199,6 +7276,9 @@
       <c r="CF26" t="n">
         <v>0</v>
       </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -7453,6 +7533,9 @@
       <c r="CF27" t="n">
         <v>0</v>
       </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -7707,6 +7790,9 @@
       <c r="CF28" t="n">
         <v>0</v>
       </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -7961,6 +8047,9 @@
       <c r="CF29" t="n">
         <v>0</v>
       </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -8215,6 +8304,9 @@
       <c r="CF30" t="n">
         <v>0</v>
       </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -8469,6 +8561,9 @@
       <c r="CF31" t="n">
         <v>0</v>
       </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -8723,6 +8818,9 @@
       <c r="CF32" t="n">
         <v>0</v>
       </c>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -8977,6 +9075,9 @@
       <c r="CF33" t="n">
         <v>0</v>
       </c>
+      <c r="CG33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -9231,6 +9332,9 @@
       <c r="CF34" t="n">
         <v>0</v>
       </c>
+      <c r="CG34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -9485,6 +9589,9 @@
       <c r="CF35" t="n">
         <v>0</v>
       </c>
+      <c r="CG35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -9739,6 +9846,9 @@
       <c r="CF36" t="n">
         <v>0</v>
       </c>
+      <c r="CG36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -9993,6 +10103,9 @@
       <c r="CF37" t="n">
         <v>0</v>
       </c>
+      <c r="CG37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -10247,6 +10360,9 @@
       <c r="CF38" t="n">
         <v>0</v>
       </c>
+      <c r="CG38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -10501,6 +10617,9 @@
       <c r="CF39" t="n">
         <v>0</v>
       </c>
+      <c r="CG39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -10755,6 +10874,9 @@
       <c r="CF40" t="n">
         <v>0</v>
       </c>
+      <c r="CG40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -11009,6 +11131,9 @@
       <c r="CF41" t="n">
         <v>0</v>
       </c>
+      <c r="CG41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -11263,6 +11388,9 @@
       <c r="CF42" t="n">
         <v>0</v>
       </c>
+      <c r="CG42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -11517,6 +11645,9 @@
       <c r="CF43" t="n">
         <v>0</v>
       </c>
+      <c r="CG43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -11771,6 +11902,9 @@
       <c r="CF44" t="n">
         <v>0</v>
       </c>
+      <c r="CG44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -12025,6 +12159,9 @@
       <c r="CF45" t="n">
         <v>0</v>
       </c>
+      <c r="CG45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -12279,6 +12416,9 @@
       <c r="CF46" t="n">
         <v>0</v>
       </c>
+      <c r="CG46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -12533,6 +12673,9 @@
       <c r="CF47" t="n">
         <v>0</v>
       </c>
+      <c r="CG47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -12787,6 +12930,9 @@
       <c r="CF48" t="n">
         <v>0</v>
       </c>
+      <c r="CG48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -13041,6 +13187,9 @@
       <c r="CF49" t="n">
         <v>0</v>
       </c>
+      <c r="CG49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -13295,6 +13444,9 @@
       <c r="CF50" t="n">
         <v>0</v>
       </c>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -13547,6 +13699,9 @@
         <v>0</v>
       </c>
       <c r="CF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/edited_final.xlsx
+++ b/edited_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>average critics</t>
+          <t>metacritic critics</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>average audience</t>
+          <t>average critics</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,44 +456,59 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>foreign gross</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>of gross earned abroad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>audience vs critics deviance</t>
+        </is>
+      </c>
       <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rotten tomatoes critics</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>metacritic audience</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rotten tomatoes audience</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>54</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66.30769230769231</v>
       </c>
       <c r="D2" t="n">
         <v>21000000</v>
@@ -502,21 +517,30 @@
         <v>3640355</v>
       </c>
       <c r="F2" t="n">
-        <v>62525155</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40000000000001</v>
+        <v>21000000000000</v>
       </c>
       <c r="H2" t="n">
-        <v>21000000000000</v>
+        <v>3.1507</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1507</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -525,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>40</v>
-      </c>
-      <c r="C3" t="n">
-        <v>84</v>
       </c>
       <c r="D3" t="n">
         <v>1399373</v>
@@ -537,21 +561,30 @@
         <v>3973263</v>
       </c>
       <c r="F3" t="n">
-        <v>115674827.125</v>
+        <v>0.4687875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4687875</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="H3" t="n">
-        <v>63614285714285.72</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="I3" t="n">
-        <v>10.82652857142857</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -560,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>36</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
       </c>
       <c r="D4" t="n">
         <v>8901419</v>
@@ -572,21 +605,30 @@
         <v>21360215</v>
       </c>
       <c r="F4" t="n">
-        <v>223648651.4166667</v>
+        <v>51.29999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>51.29999999999999</v>
+        <v>44000000000000</v>
       </c>
       <c r="H4" t="n">
-        <v>44000000000000</v>
+        <v>0.4855</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4855</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -595,10 +637,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>65</v>
-      </c>
-      <c r="C5" t="n">
-        <v>70</v>
       </c>
       <c r="D5" t="n">
         <v>2919717</v>
@@ -607,21 +649,30 @@
         <v>8286741</v>
       </c>
       <c r="F5" t="n">
-        <v>12959213</v>
+        <v>0.61</v>
       </c>
       <c r="G5" t="n">
-        <v>0.61</v>
+        <v>60000000000000</v>
       </c>
       <c r="H5" t="n">
-        <v>60000000000000</v>
+        <v>0.3541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3541</v>
+        <v>6.7</v>
       </c>
       <c r="J5" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -630,10 +681,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>64</v>
-      </c>
-      <c r="C6" t="n">
-        <v>57</v>
       </c>
       <c r="D6" t="n">
         <v>14711101</v>
@@ -642,21 +693,30 @@
         <v>50316123</v>
       </c>
       <c r="F6" t="n">
-        <v>40928790</v>
+        <v>0.4486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4486</v>
+        <v>12000000000000</v>
       </c>
       <c r="H6" t="n">
-        <v>12000000000000</v>
+        <v>7.6037</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6037</v>
+        <v>6.7</v>
       </c>
       <c r="J6" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,10 +725,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>57</v>
-      </c>
-      <c r="C7" t="n">
-        <v>77</v>
       </c>
       <c r="D7" t="n">
         <v>16627491</v>
@@ -677,21 +737,30 @@
         <v>48947356</v>
       </c>
       <c r="F7" t="n">
-        <v>40928790</v>
+        <v>0.4486</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4486</v>
+        <v>64000000000000</v>
       </c>
       <c r="H7" t="n">
-        <v>64000000000000</v>
+        <v>1.2253</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2253</v>
+        <v>5.9</v>
       </c>
       <c r="J7" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -700,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>54</v>
-      </c>
-      <c r="C8" t="n">
-        <v>47</v>
       </c>
       <c r="D8" t="n">
         <v>2540240</v>
@@ -712,21 +781,30 @@
         <v>6782066</v>
       </c>
       <c r="F8" t="n">
-        <v>8961988</v>
+        <v>57.3</v>
       </c>
       <c r="G8" t="n">
-        <v>57.3</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="H8" t="n">
-        <v>73183333333333.33</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="I8" t="n">
-        <v>3.619091666666666</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -735,10 +813,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>67</v>
-      </c>
-      <c r="C9" t="n">
-        <v>81</v>
       </c>
       <c r="D9" t="n">
         <v>31625971</v>
@@ -747,21 +825,30 @@
         <v>100916094</v>
       </c>
       <c r="F9" t="n">
-        <v>30813958.125</v>
+        <v>12.753675</v>
       </c>
       <c r="G9" t="n">
-        <v>12.753675</v>
+        <v>155000000000000</v>
       </c>
       <c r="H9" t="n">
-        <v>155000000000000</v>
+        <v>3.0196</v>
       </c>
       <c r="I9" t="n">
-        <v>3.0196</v>
+        <v>6.3</v>
       </c>
       <c r="J9" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -770,10 +857,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>54</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47</v>
       </c>
       <c r="D10" t="n">
         <v>1763070</v>
@@ -782,21 +869,30 @@
         <v>3005408</v>
       </c>
       <c r="F10" t="n">
-        <v>208313889.7440476</v>
+        <v>51.72857142857141</v>
       </c>
       <c r="G10" t="n">
-        <v>51.72857142857141</v>
+        <v>5000000000000</v>
       </c>
       <c r="H10" t="n">
-        <v>5000000000000</v>
+        <v>0.6011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6011</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -805,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55</v>
       </c>
       <c r="D11" t="n">
         <v>30035838</v>
@@ -817,21 +913,30 @@
         <v>80001807</v>
       </c>
       <c r="F11" t="n">
-        <v>173888894</v>
+        <v>68.5</v>
       </c>
       <c r="G11" t="n">
-        <v>68.5</v>
+        <v>110000000000000</v>
       </c>
       <c r="H11" t="n">
-        <v>110000000000000</v>
+        <v>2.3081</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3081</v>
+        <v>5.6</v>
       </c>
       <c r="J11" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -840,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>62</v>
-      </c>
-      <c r="C12" t="n">
-        <v>53</v>
       </c>
       <c r="D12" t="n">
         <v>26608020</v>
@@ -852,21 +957,30 @@
         <v>68549695</v>
       </c>
       <c r="F12" t="n">
-        <v>62907452</v>
+        <v>0.4785</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4785</v>
+        <v>42000000000000</v>
       </c>
       <c r="H12" t="n">
-        <v>42000000000000</v>
+        <v>3.1299</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1299</v>
+        <v>6.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>6.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -875,10 +989,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>54</v>
-      </c>
-      <c r="C13" t="n">
-        <v>80</v>
       </c>
       <c r="D13" t="n">
         <v>251569</v>
@@ -887,21 +1001,30 @@
         <v>3689637</v>
       </c>
       <c r="F13" t="n">
-        <v>33545454.390625</v>
+        <v>7.185384375</v>
       </c>
       <c r="G13" t="n">
-        <v>7.185384375</v>
+        <v>59857142857142.86</v>
       </c>
       <c r="H13" t="n">
-        <v>59857142857142.86</v>
+        <v>1.72075</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72075</v>
+        <v>6.9</v>
       </c>
       <c r="J13" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,10 +1033,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>89</v>
-      </c>
-      <c r="C14" t="n">
-        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>11504710</v>
@@ -922,21 +1045,30 @@
         <v>29975167</v>
       </c>
       <c r="F14" t="n">
-        <v>29875204.68945312</v>
+        <v>8.023744921875</v>
       </c>
       <c r="G14" t="n">
-        <v>8.023744921875</v>
+        <v>55000000000000</v>
       </c>
       <c r="H14" t="n">
-        <v>55000000000000</v>
+        <v>0.7936</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7936</v>
+        <v>7.3</v>
       </c>
       <c r="J14" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,10 +1077,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>3106730</v>
@@ -957,21 +1089,30 @@
         <v>6546159</v>
       </c>
       <c r="F15" t="n">
-        <v>906254</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>12</v>
+        <v>5000000000000</v>
       </c>
       <c r="H15" t="n">
-        <v>5000000000000</v>
+        <v>1.4905</v>
       </c>
       <c r="I15" t="n">
-        <v>1.4905</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,10 +1121,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>51</v>
       </c>
       <c r="D16" t="n">
         <v>5319280</v>
@@ -992,21 +1133,30 @@
         <v>17000612</v>
       </c>
       <c r="F16" t="n">
-        <v>25746173.77563477</v>
+        <v>8.966900537109375</v>
       </c>
       <c r="G16" t="n">
-        <v>8.966900537109375</v>
+        <v>25000000000000</v>
       </c>
       <c r="H16" t="n">
-        <v>25000000000000</v>
+        <v>1.6764</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6764</v>
+        <v>5.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,10 +1165,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>79</v>
-      </c>
-      <c r="C17" t="n">
-        <v>77</v>
       </c>
       <c r="D17" t="n">
         <v>75812205</v>
@@ -1027,21 +1177,30 @@
         <v>211630916</v>
       </c>
       <c r="F17" t="n">
-        <v>333301651</v>
+        <v>0.6115999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6115999999999999</v>
+        <v>195000000000000</v>
       </c>
       <c r="H17" t="n">
-        <v>195000000000000</v>
+        <v>2.7945</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7945</v>
+        <v>6.239999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>6.239999999999998</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>58</v>
-      </c>
-      <c r="C18" t="n">
-        <v>62</v>
       </c>
       <c r="D18" t="n">
         <v>25010928</v>
@@ -1062,21 +1221,30 @@
         <v>115234093</v>
       </c>
       <c r="F18" t="n">
-        <v>235984098</v>
+        <v>0.6718999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6718999999999999</v>
+        <v>50000000000000</v>
       </c>
       <c r="H18" t="n">
-        <v>50000000000000</v>
+        <v>7.024400000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>7.024400000000001</v>
+        <v>6.309333333333332</v>
       </c>
       <c r="J18" t="n">
-        <v>6.309333333333332</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,10 +1253,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>75</v>
-      </c>
-      <c r="C19" t="n">
-        <v>80</v>
       </c>
       <c r="D19" t="n">
         <v>16000495</v>
@@ -1097,21 +1265,30 @@
         <v>44141550</v>
       </c>
       <c r="F19" t="n">
-        <v>48559860</v>
+        <v>0.5238</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5238</v>
+        <v>40000000000000</v>
       </c>
       <c r="H19" t="n">
-        <v>40000000000000</v>
+        <v>2.3175</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3175</v>
+        <v>7.4</v>
       </c>
       <c r="J19" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,10 +1297,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>65</v>
-      </c>
-      <c r="C20" t="n">
-        <v>76</v>
       </c>
       <c r="D20" t="n">
         <v>5861836</v>
@@ -1132,21 +1309,30 @@
         <v>26514814</v>
       </c>
       <c r="F20" t="n">
-        <v>28851163.74758911</v>
+        <v>8.587763104248047</v>
       </c>
       <c r="G20" t="n">
-        <v>8.587763104248047</v>
+        <v>25000000000000</v>
       </c>
       <c r="H20" t="n">
-        <v>25000000000000</v>
+        <v>1.72075</v>
       </c>
       <c r="I20" t="n">
-        <v>1.72075</v>
+        <v>7.1</v>
       </c>
       <c r="J20" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1155,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>80</v>
-      </c>
-      <c r="C21" t="n">
-        <v>68</v>
       </c>
       <c r="D21" t="n">
         <v>56237634</v>
@@ -1167,21 +1353,30 @@
         <v>187164171</v>
       </c>
       <c r="F21" t="n">
-        <v>217884434</v>
+        <v>0.5379</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5379</v>
+        <v>175000000000000</v>
       </c>
       <c r="H21" t="n">
-        <v>175000000000000</v>
+        <v>2.3146</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3146</v>
+        <v>6.383288888888887</v>
       </c>
       <c r="J21" t="n">
-        <v>6.383288888888887</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1190,10 +1385,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>72</v>
-      </c>
-      <c r="C22" t="n">
-        <v>77</v>
       </c>
       <c r="D22" t="n">
         <v>805000</v>
@@ -1202,21 +1397,30 @@
         <v>10640105</v>
       </c>
       <c r="F22" t="n">
-        <v>4739790</v>
+        <v>0.3082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3082</v>
+        <v>300000000000</v>
       </c>
       <c r="H22" t="n">
-        <v>300000000000</v>
+        <v>61.5196</v>
       </c>
       <c r="I22" t="n">
-        <v>61.5196</v>
+        <v>6.1</v>
       </c>
       <c r="J22" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,10 +1429,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>30</v>
-      </c>
-      <c r="C23" t="n">
-        <v>47</v>
       </c>
       <c r="D23" t="n">
         <v>4003993</v>
@@ -1237,21 +1441,30 @@
         <v>9561064</v>
       </c>
       <c r="F23" t="n">
-        <v>17804403</v>
+        <v>0.6506000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6506000000000001</v>
+        <v>2800000000000</v>
       </c>
       <c r="H23" t="n">
-        <v>2800000000000</v>
+        <v>9.773400000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>9.773400000000001</v>
+        <v>6.335508148148147</v>
       </c>
       <c r="J23" t="n">
-        <v>6.335508148148147</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1260,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>73</v>
-      </c>
-      <c r="C24" t="n">
-        <v>75</v>
       </c>
       <c r="D24" t="n">
         <v>1755325</v>
@@ -1272,21 +1485,30 @@
         <v>4330720</v>
       </c>
       <c r="F24" t="n">
-        <v>102933</v>
+        <v>0.0232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0232</v>
+        <v>63614285714285.72</v>
       </c>
       <c r="H24" t="n">
-        <v>63614285714285.72</v>
+        <v>10.82652857142857</v>
       </c>
       <c r="I24" t="n">
-        <v>10.82652857142857</v>
+        <v>6.8</v>
       </c>
       <c r="J24" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1295,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>75</v>
-      </c>
-      <c r="C25" t="n">
-        <v>72</v>
       </c>
       <c r="D25" t="n">
         <v>3600355</v>
@@ -1307,21 +1529,30 @@
         <v>9030855</v>
       </c>
       <c r="F25" t="n">
-        <v>9042578</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>6000000000000</v>
       </c>
       <c r="H25" t="n">
-        <v>6000000000000</v>
+        <v>3.0122</v>
       </c>
       <c r="I25" t="n">
-        <v>3.0122</v>
+        <v>6.3</v>
       </c>
       <c r="J25" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,10 +1561,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>63.625</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>21115423.5</v>
@@ -1342,21 +1573,30 @@
         <v>2033057</v>
       </c>
       <c r="F26" t="n">
-        <v>3475600</v>
+        <v>0.6309</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6309</v>
+        <v>5000000000000</v>
       </c>
       <c r="H26" t="n">
-        <v>5000000000000</v>
+        <v>1.1017</v>
       </c>
       <c r="I26" t="n">
-        <v>1.1017</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,10 +1605,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
         <v>34</v>
-      </c>
-      <c r="C27" t="n">
-        <v>54</v>
       </c>
       <c r="D27" t="n">
         <v>700160</v>
@@ -1377,21 +1617,30 @@
         <v>2241980</v>
       </c>
       <c r="F27" t="n">
-        <v>1033099</v>
+        <v>30.3</v>
       </c>
       <c r="G27" t="n">
-        <v>30.3</v>
+        <v>34666666666666.66</v>
       </c>
       <c r="H27" t="n">
-        <v>34666666666666.66</v>
+        <v>1.5647</v>
       </c>
       <c r="I27" t="n">
-        <v>1.5647</v>
+        <v>6.1</v>
       </c>
       <c r="J27" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1400,10 +1649,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
         <v>83</v>
-      </c>
-      <c r="C28" t="n">
-        <v>87</v>
       </c>
       <c r="D28" t="n">
         <v>204793</v>
@@ -1412,21 +1661,30 @@
         <v>20437883</v>
       </c>
       <c r="F28" t="n">
-        <v>315805</v>
+        <v>1.4</v>
       </c>
       <c r="G28" t="n">
-        <v>1.4</v>
+        <v>6200000000000</v>
       </c>
       <c r="H28" t="n">
-        <v>6200000000000</v>
+        <v>3.3474</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3474</v>
+        <v>7.6</v>
       </c>
       <c r="J28" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1435,10 +1693,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>75</v>
-      </c>
-      <c r="C29" t="n">
-        <v>68</v>
       </c>
       <c r="D29" t="n">
         <v>246305</v>
@@ -1447,21 +1705,30 @@
         <v>15500045</v>
       </c>
       <c r="F29" t="n">
-        <v>6887012</v>
+        <v>30.8</v>
       </c>
       <c r="G29" t="n">
-        <v>30.8</v>
+        <v>4000000000000</v>
       </c>
       <c r="H29" t="n">
-        <v>4000000000000</v>
+        <v>5.596799999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>5.596799999999999</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1470,10 +1737,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>55</v>
-      </c>
-      <c r="C30" t="n">
-        <v>72</v>
       </c>
       <c r="D30" t="n">
         <v>10101066</v>
@@ -1482,21 +1749,30 @@
         <v>40501717</v>
       </c>
       <c r="F30" t="n">
-        <v>26387576.71603775</v>
+        <v>9.595758492279053</v>
       </c>
       <c r="G30" t="n">
-        <v>9.595758492279053</v>
+        <v>45000000000000</v>
       </c>
       <c r="H30" t="n">
-        <v>45000000000000</v>
+        <v>3.355</v>
       </c>
       <c r="I30" t="n">
-        <v>3.355</v>
+        <v>6.2</v>
       </c>
       <c r="J30" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1505,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
         <v>40</v>
-      </c>
-      <c r="C31" t="n">
-        <v>57</v>
       </c>
       <c r="D31" t="n">
         <v>6444896</v>
@@ -1517,21 +1793,30 @@
         <v>14947969</v>
       </c>
       <c r="F31" t="n">
-        <v>14452857</v>
+        <v>0.4916</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4916</v>
+        <v>80000000000000</v>
       </c>
       <c r="H31" t="n">
-        <v>80000000000000</v>
+        <v>0.3675</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3675</v>
+        <v>6.1</v>
       </c>
       <c r="J31" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1540,10 +1825,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>62</v>
-      </c>
-      <c r="C32" t="n">
-        <v>58</v>
       </c>
       <c r="D32" t="n">
         <v>7768371</v>
@@ -1552,21 +1837,30 @@
         <v>29796477</v>
       </c>
       <c r="F32" t="n">
-        <v>112069769.6666667</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>60000000000000</v>
       </c>
       <c r="H32" t="n">
-        <v>60000000000000</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="I32" t="n">
-        <v>5.583269230769232</v>
+        <v>6.351208691358024</v>
       </c>
       <c r="J32" t="n">
-        <v>6.351208691358024</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,10 +1869,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>66</v>
-      </c>
-      <c r="C33" t="n">
-        <v>54</v>
       </c>
       <c r="D33" t="n">
         <v>4651571</v>
@@ -1587,21 +1881,30 @@
         <v>8237403</v>
       </c>
       <c r="F33" t="n">
-        <v>28825147.30554247</v>
+        <v>6.945228303813934</v>
       </c>
       <c r="G33" t="n">
-        <v>6.945228303813934</v>
+        <v>50000000000000</v>
       </c>
       <c r="H33" t="n">
-        <v>50000000000000</v>
+        <v>0.2546</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2546</v>
+        <v>6.3</v>
       </c>
       <c r="J33" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1610,10 +1913,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
         <v>70</v>
-      </c>
-      <c r="C34" t="n">
-        <v>71</v>
       </c>
       <c r="D34" t="n">
         <v>34952180</v>
@@ -1622,21 +1925,30 @@
         <v>115620025</v>
       </c>
       <c r="F34" t="n">
-        <v>234951977</v>
+        <v>0.6701999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6701999999999999</v>
+        <v>75000000000000</v>
       </c>
       <c r="H34" t="n">
-        <v>75000000000000</v>
+        <v>4.6743</v>
       </c>
       <c r="I34" t="n">
-        <v>4.6743</v>
+        <v>6.367955937448558</v>
       </c>
       <c r="J34" t="n">
-        <v>6.367955937448558</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,10 +1957,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>13743111</v>
@@ -1657,21 +1969,30 @@
         <v>31713110</v>
       </c>
       <c r="F35" t="n">
-        <v>1819483</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05429999999999999</v>
+        <v>19000000000000</v>
       </c>
       <c r="H35" t="n">
-        <v>19000000000000</v>
+        <v>1.7649</v>
       </c>
       <c r="I35" t="n">
-        <v>1.7649</v>
+        <v>6.372486333278462</v>
       </c>
       <c r="J35" t="n">
-        <v>6.372486333278462</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1680,10 +2001,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
         <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>44</v>
       </c>
       <c r="D36" t="n">
         <v>26347631</v>
@@ -1692,21 +2013,30 @@
         <v>54733739</v>
       </c>
       <c r="F36" t="n">
-        <v>67400000</v>
+        <v>55.2</v>
       </c>
       <c r="G36" t="n">
-        <v>55.2</v>
+        <v>9000000000000</v>
       </c>
       <c r="H36" t="n">
-        <v>9000000000000</v>
+        <v>13.5704</v>
       </c>
       <c r="I36" t="n">
-        <v>13.5704</v>
+        <v>5.2</v>
       </c>
       <c r="J36" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1715,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>53</v>
@@ -1727,21 +2057,30 @@
         <v>68566296</v>
       </c>
       <c r="F37" t="n">
-        <v>118577563.8444445</v>
+        <v>4.078813333333334</v>
       </c>
       <c r="G37" t="n">
-        <v>4.078813333333334</v>
+        <v>10000000000000</v>
       </c>
       <c r="H37" t="n">
-        <v>10000000000000</v>
+        <v>6.856599999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>6.856599999999999</v>
+        <v>6.377318755497027</v>
       </c>
       <c r="J37" t="n">
-        <v>6.377318755497027</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1750,10 +2089,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>44</v>
-      </c>
-      <c r="C38" t="n">
-        <v>86</v>
       </c>
       <c r="D38" t="n">
         <v>8137584</v>
@@ -1762,21 +2101,30 @@
         <v>26402818</v>
       </c>
       <c r="F38" t="n">
-        <v>7371145</v>
+        <v>21.9</v>
       </c>
       <c r="G38" t="n">
-        <v>21.9</v>
+        <v>73183333333333.33</v>
       </c>
       <c r="H38" t="n">
-        <v>73183333333333.33</v>
+        <v>3.619091666666666</v>
       </c>
       <c r="I38" t="n">
-        <v>3.619091666666666</v>
+        <v>7.5</v>
       </c>
       <c r="J38" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1785,10 +2133,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
         <v>87</v>
-      </c>
-      <c r="C39" t="n">
-        <v>85</v>
       </c>
       <c r="D39" t="n">
         <v>126707459</v>
@@ -1797,21 +2145,30 @@
         <v>718732821</v>
       </c>
       <c r="F39" t="n">
-        <v>756440284</v>
+        <v>0.5128</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5128</v>
+        <v>170000000000000</v>
       </c>
       <c r="H39" t="n">
-        <v>170000000000000</v>
+        <v>8.6775</v>
       </c>
       <c r="I39" t="n">
-        <v>8.6775</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1820,10 +2177,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>45</v>
-      </c>
-      <c r="C40" t="n">
-        <v>78</v>
       </c>
       <c r="D40" t="n">
         <v>47776293</v>
@@ -1832,21 +2189,30 @@
         <v>110500138</v>
       </c>
       <c r="F40" t="n">
-        <v>275400000</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>71.40000000000001</v>
+        <v>170000000000000</v>
       </c>
       <c r="H40" t="n">
-        <v>170000000000000</v>
+        <v>2.27</v>
       </c>
       <c r="I40" t="n">
-        <v>2.27</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1855,10 +2221,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>89</v>
-      </c>
-      <c r="C41" t="n">
-        <v>78</v>
       </c>
       <c r="D41" t="n">
         <v>10845330</v>
@@ -1867,21 +2233,30 @@
         <v>32316575</v>
       </c>
       <c r="F41" t="n">
-        <v>9325905</v>
+        <v>0.224</v>
       </c>
       <c r="G41" t="n">
-        <v>0.224</v>
+        <v>15000000000000</v>
       </c>
       <c r="H41" t="n">
-        <v>15000000000000</v>
+        <v>2.7762</v>
       </c>
       <c r="I41" t="n">
-        <v>2.7762</v>
+        <v>6.455806672530161</v>
       </c>
       <c r="J41" t="n">
-        <v>6.455806672530161</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,10 +2265,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
         <v>53</v>
-      </c>
-      <c r="C42" t="n">
-        <v>54</v>
       </c>
       <c r="D42" t="n">
         <v>8351109</v>
@@ -1902,21 +2277,30 @@
         <v>17199425</v>
       </c>
       <c r="F42" t="n">
-        <v>38400000</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>69.09999999999999</v>
+        <v>48000000000000</v>
       </c>
       <c r="H42" t="n">
-        <v>48000000000000</v>
+        <v>1.1583</v>
       </c>
       <c r="I42" t="n">
-        <v>1.1583</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1925,10 +2309,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
         <v>44</v>
-      </c>
-      <c r="C43" t="n">
-        <v>69</v>
       </c>
       <c r="D43" t="n">
         <v>918112</v>
@@ -1937,21 +2321,30 @@
         <v>6306897</v>
       </c>
       <c r="F43" t="n">
-        <v>724392</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>10</v>
+        <v>60000000000000</v>
       </c>
       <c r="H43" t="n">
-        <v>60000000000000</v>
+        <v>0.1172</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1172</v>
+        <v>5.4</v>
       </c>
       <c r="J43" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,10 +2353,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>81</v>
-      </c>
-      <c r="C44" t="n">
-        <v>79</v>
       </c>
       <c r="D44" t="n">
         <v>2250430</v>
@@ -1972,21 +2365,30 @@
         <v>12668325</v>
       </c>
       <c r="F44" t="n">
-        <v>2881115.25</v>
+        <v>25.075</v>
       </c>
       <c r="G44" t="n">
-        <v>25.075</v>
+        <v>38000000000000</v>
       </c>
       <c r="H44" t="n">
-        <v>38000000000000</v>
+        <v>1.5647</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5647</v>
+        <v>6.8</v>
       </c>
       <c r="J44" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1995,10 +2397,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>70</v>
-      </c>
-      <c r="C45" t="n">
-        <v>75</v>
       </c>
       <c r="D45" t="n">
         <v>14504315</v>
@@ -2007,21 +2409,30 @@
         <v>66220028</v>
       </c>
       <c r="F45" t="n">
-        <v>9724832</v>
+        <v>0.1281</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1281</v>
+        <v>48000000000000</v>
       </c>
       <c r="H45" t="n">
-        <v>48000000000000</v>
+        <v>1.5822</v>
       </c>
       <c r="I45" t="n">
-        <v>1.5822</v>
+        <v>6.486193784032172</v>
       </c>
       <c r="J45" t="n">
-        <v>6.486193784032172</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,10 +2441,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
         <v>94</v>
-      </c>
-      <c r="C46" t="n">
-        <v>85</v>
       </c>
       <c r="D46" t="n">
         <v>11001961</v>
@@ -2042,21 +2453,30 @@
         <v>40442052</v>
       </c>
       <c r="F46" t="n">
-        <v>186435244</v>
+        <v>0.8217</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8217</v>
+        <v>40000000000000</v>
       </c>
       <c r="H46" t="n">
-        <v>40000000000000</v>
+        <v>5.671900000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>5.671900000000001</v>
+        <v>6.465273369634317</v>
       </c>
       <c r="J46" t="n">
-        <v>6.465273369634317</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2065,7 +2485,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>85</v>
@@ -2077,21 +2497,30 @@
         <v>4153783</v>
       </c>
       <c r="F47" t="n">
-        <v>25419</v>
+        <v>0.0061</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0061</v>
+        <v>54700000000000</v>
       </c>
       <c r="H47" t="n">
-        <v>54700000000000</v>
+        <v>5.583269230769232</v>
       </c>
       <c r="I47" t="n">
-        <v>5.583269230769232</v>
+        <v>6.442958260943271</v>
       </c>
       <c r="J47" t="n">
-        <v>6.442958260943271</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2100,10 +2529,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
         <v>36</v>
-      </c>
-      <c r="C48" t="n">
-        <v>47</v>
       </c>
       <c r="D48" t="n">
         <v>53807379</v>
@@ -2112,21 +2541,30 @@
         <v>117450119</v>
       </c>
       <c r="F48" t="n">
-        <v>248100000</v>
+        <v>0.6787000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6787000000000001</v>
+        <v>22000000000000</v>
       </c>
       <c r="H48" t="n">
-        <v>22000000000000</v>
+        <v>16.6159</v>
       </c>
       <c r="I48" t="n">
-        <v>16.6159</v>
+        <v>6.41915547833949</v>
       </c>
       <c r="J48" t="n">
-        <v>6.41915547833949</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2135,10 +2573,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>57</v>
-      </c>
-      <c r="C49" t="n">
-        <v>69</v>
       </c>
       <c r="D49" t="n">
         <v>12891123</v>
@@ -2147,21 +2585,30 @@
         <v>45630104</v>
       </c>
       <c r="F49" t="n">
-        <v>84668080</v>
+        <v>0.6498</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6498</v>
+        <v>90000000000000</v>
       </c>
       <c r="H49" t="n">
-        <v>90000000000000</v>
+        <v>1.4478</v>
       </c>
       <c r="I49" t="n">
-        <v>1.4478</v>
+        <v>6.3</v>
       </c>
       <c r="J49" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2170,10 +2617,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
         <v>86</v>
-      </c>
-      <c r="C50" t="n">
-        <v>84</v>
       </c>
       <c r="D50" t="n">
         <v>357115007</v>
@@ -2182,21 +2629,30 @@
         <v>858373000</v>
       </c>
       <c r="F50" t="n">
-        <v>1939427564</v>
+        <v>69.3</v>
       </c>
       <c r="G50" t="n">
-        <v>69.3</v>
+        <v>356000000000000</v>
       </c>
       <c r="H50" t="n">
-        <v>356000000000000</v>
+        <v>7.859</v>
       </c>
       <c r="I50" t="n">
-        <v>7.859</v>
+        <v>8.4</v>
       </c>
       <c r="J50" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,10 +2661,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
         <v>81</v>
-      </c>
-      <c r="C51" t="n">
-        <v>86</v>
       </c>
       <c r="D51" t="n">
         <v>53505326</v>
@@ -2217,21 +2673,30 @@
         <v>56830326</v>
       </c>
       <c r="F51" t="n">
-        <v>102300000</v>
+        <v>64.3</v>
       </c>
       <c r="G51" t="n">
-        <v>64.3</v>
+        <v>100000000000000</v>
       </c>
       <c r="H51" t="n">
-        <v>100000000000000</v>
+        <v>1.5913</v>
       </c>
       <c r="I51" t="n">
-        <v>1.5913</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/edited_final.xlsx
+++ b/edited_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>metacritic critics</t>
+          <t>rotten tomatoes critics</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,42 +446,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>average audience</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>opening weekend</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>domestic gross</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>of gross earned abroad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>audience vs critics deviance</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rotten tomatoes critics</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -491,12 +491,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>rotten tomatoes audience</t>
+          <t>metacritic critics</t>
         </is>
       </c>
     </row>
@@ -511,36 +506,33 @@
         <v>54</v>
       </c>
       <c r="D2" t="n">
+        <v>66.30769230769231</v>
+      </c>
+      <c r="E2" t="n">
         <v>21000000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3640355</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>62525155</v>
+      </c>
+      <c r="H2" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>21000000000000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>3.1507</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>6.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -555,36 +547,33 @@
         <v>40</v>
       </c>
       <c r="D3" t="n">
+        <v>84</v>
+      </c>
+      <c r="E3" t="n">
         <v>1399373</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>3973263</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>115674827.125</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4687875</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>63614285714285.72</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -599,36 +588,33 @@
         <v>36</v>
       </c>
       <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="n">
         <v>8901419</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>21360215</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>223648651.4166667</v>
+      </c>
+      <c r="H4" t="n">
         <v>51.29999999999999</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>44000000000000</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.4855</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>6.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,36 +629,33 @@
         <v>65</v>
       </c>
       <c r="D5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E5" t="n">
         <v>2919717</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8286741</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>12959213</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.61</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.3541</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6.7</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -687,36 +670,33 @@
         <v>64</v>
       </c>
       <c r="D6" t="n">
+        <v>57</v>
+      </c>
+      <c r="E6" t="n">
         <v>14711101</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>50316123</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>40928790</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4486</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>12000000000000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>7.6037</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6.7</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -731,36 +711,33 @@
         <v>57</v>
       </c>
       <c r="D7" t="n">
+        <v>77</v>
+      </c>
+      <c r="E7" t="n">
         <v>16627491</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>48947356</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>40928790</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4486</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>64000000000000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>1.2253</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>5.9</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,36 +752,33 @@
         <v>54</v>
       </c>
       <c r="D8" t="n">
+        <v>47</v>
+      </c>
+      <c r="E8" t="n">
         <v>2540240</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6782066</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>8961988</v>
+      </c>
+      <c r="H8" t="n">
         <v>57.3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>73183333333333.33</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>5.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -819,36 +793,33 @@
         <v>67</v>
       </c>
       <c r="D9" t="n">
+        <v>81</v>
+      </c>
+      <c r="E9" t="n">
         <v>31625971</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>100916094</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>30813958.125</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.753675</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>155000000000000</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>3.0196</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>6.3</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,36 +834,33 @@
         <v>54</v>
       </c>
       <c r="D10" t="n">
+        <v>47</v>
+      </c>
+      <c r="E10" t="n">
         <v>1763070</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3005408</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>208313889.7440476</v>
+      </c>
+      <c r="H10" t="n">
         <v>51.72857142857141</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.6011</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>5.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -907,36 +875,33 @@
         <v>31</v>
       </c>
       <c r="D11" t="n">
+        <v>55</v>
+      </c>
+      <c r="E11" t="n">
         <v>30035838</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>80001807</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>173888894</v>
+      </c>
+      <c r="H11" t="n">
         <v>68.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>110000000000000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>2.3081</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>5.6</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,36 +916,33 @@
         <v>62</v>
       </c>
       <c r="D12" t="n">
+        <v>53</v>
+      </c>
+      <c r="E12" t="n">
         <v>26608020</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>68549695</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>62907452</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4785</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>42000000000000</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>3.1299</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -995,36 +957,33 @@
         <v>54</v>
       </c>
       <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
         <v>251569</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3689637</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>33545454.390625</v>
+      </c>
+      <c r="H13" t="n">
         <v>7.185384375</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>59857142857142.86</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>1.72075</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>6.9</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1039,36 +998,33 @@
         <v>89</v>
       </c>
       <c r="D14" t="n">
+        <v>82</v>
+      </c>
+      <c r="E14" t="n">
         <v>11504710</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>29975167</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>29875204.68945312</v>
+      </c>
+      <c r="H14" t="n">
         <v>8.023744921875</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>55000000000000</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>0.7936</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>7.3</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1083,36 +1039,33 @@
         <v>25</v>
       </c>
       <c r="D15" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" t="n">
         <v>3106730</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>6546159</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>906254</v>
+      </c>
+      <c r="H15" t="n">
         <v>12</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>1.4905</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1127,36 +1080,33 @@
         <v>37</v>
       </c>
       <c r="D16" t="n">
+        <v>51</v>
+      </c>
+      <c r="E16" t="n">
         <v>5319280</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>17000612</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>25746173.77563477</v>
+      </c>
+      <c r="H16" t="n">
         <v>8.966900537109375</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>25000000000000</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>1.6764</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>5.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1171,36 +1121,33 @@
         <v>79</v>
       </c>
       <c r="D17" t="n">
+        <v>77</v>
+      </c>
+      <c r="E17" t="n">
         <v>75812205</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>211630916</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>333301651</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.6115999999999999</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>195000000000000</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>2.7945</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>6.239999999999998</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1215,36 +1162,33 @@
         <v>58</v>
       </c>
       <c r="D18" t="n">
+        <v>62</v>
+      </c>
+      <c r="E18" t="n">
         <v>25010928</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>115234093</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>235984098</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.6718999999999999</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>50000000000000</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>7.024400000000001</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>6.309333333333332</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1259,36 +1203,33 @@
         <v>75</v>
       </c>
       <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="n">
         <v>16000495</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>44141550</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>48559860</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5238</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>40000000000000</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>2.3175</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>7.4</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1303,36 +1244,33 @@
         <v>65</v>
       </c>
       <c r="D20" t="n">
+        <v>76</v>
+      </c>
+      <c r="E20" t="n">
         <v>5861836</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>26514814</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>28851163.74758911</v>
+      </c>
+      <c r="H20" t="n">
         <v>8.587763104248047</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>25000000000000</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>1.72075</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>7.1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1347,36 +1285,33 @@
         <v>80</v>
       </c>
       <c r="D21" t="n">
+        <v>68</v>
+      </c>
+      <c r="E21" t="n">
         <v>56237634</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>187164171</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>217884434</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5379</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>175000000000000</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>2.3146</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>6.383288888888887</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1391,36 +1326,33 @@
         <v>72</v>
       </c>
       <c r="D22" t="n">
+        <v>77</v>
+      </c>
+      <c r="E22" t="n">
         <v>805000</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>10640105</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>4739790</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.3082</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>300000000000</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>61.5196</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>6.1</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1435,36 +1367,33 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
+        <v>47</v>
+      </c>
+      <c r="E23" t="n">
         <v>4003993</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>9561064</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
+        <v>17804403</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.6506000000000001</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>2800000000000</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>9.773400000000001</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>6.335508148148147</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1479,36 +1408,33 @@
         <v>73</v>
       </c>
       <c r="D24" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" t="n">
         <v>1755325</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>4330720</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
+        <v>102933</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.0232</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>63614285714285.72</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>6.8</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1523,36 +1449,33 @@
         <v>75</v>
       </c>
       <c r="D25" t="n">
+        <v>72</v>
+      </c>
+      <c r="E25" t="n">
         <v>3600355</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>9030855</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
+        <v>9042578</v>
+      </c>
+      <c r="H25" t="n">
         <v>50</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>6000000000000</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>3.0122</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>6.3</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1567,36 +1490,33 @@
         <v>63.625</v>
       </c>
       <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
         <v>21115423.5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>2033057</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
+        <v>3475600</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.6309</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>5000000000000</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>1.1017</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>2.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1611,36 +1531,33 @@
         <v>34</v>
       </c>
       <c r="D27" t="n">
+        <v>54</v>
+      </c>
+      <c r="E27" t="n">
         <v>700160</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2241980</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
+        <v>1033099</v>
+      </c>
+      <c r="H27" t="n">
         <v>30.3</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>34666666666666.66</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>1.5647</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27" t="n">
         <v>6.1</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1655,36 +1572,33 @@
         <v>83</v>
       </c>
       <c r="D28" t="n">
+        <v>87</v>
+      </c>
+      <c r="E28" t="n">
         <v>204793</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>20437883</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
+        <v>315805</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.4</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>6200000000000</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>3.3474</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>7.6</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1699,36 +1613,33 @@
         <v>75</v>
       </c>
       <c r="D29" t="n">
+        <v>68</v>
+      </c>
+      <c r="E29" t="n">
         <v>246305</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>15500045</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
+        <v>6887012</v>
+      </c>
+      <c r="H29" t="n">
         <v>30.8</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>4000000000000</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>5.596799999999999</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>6.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1743,36 +1654,33 @@
         <v>55</v>
       </c>
       <c r="D30" t="n">
+        <v>72</v>
+      </c>
+      <c r="E30" t="n">
         <v>10101066</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>40501717</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
+        <v>26387576.71603775</v>
+      </c>
+      <c r="H30" t="n">
         <v>9.595758492279053</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>45000000000000</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>3.355</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>6.2</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1787,36 +1695,33 @@
         <v>40</v>
       </c>
       <c r="D31" t="n">
+        <v>57</v>
+      </c>
+      <c r="E31" t="n">
         <v>6444896</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>14947969</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
+        <v>14452857</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4916</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>80000000000000</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>0.3675</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>6.1</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1831,36 +1736,33 @@
         <v>62</v>
       </c>
       <c r="D32" t="n">
+        <v>58</v>
+      </c>
+      <c r="E32" t="n">
         <v>7768371</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>29796477</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>112069769.6666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>6.351208691358024</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1875,36 +1777,33 @@
         <v>66</v>
       </c>
       <c r="D33" t="n">
+        <v>54</v>
+      </c>
+      <c r="E33" t="n">
         <v>4651571</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>8237403</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
+        <v>28825147.30554247</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.945228303813934</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>50000000000000</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>0.2546</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>6.3</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,36 +1818,33 @@
         <v>70</v>
       </c>
       <c r="D34" t="n">
+        <v>71</v>
+      </c>
+      <c r="E34" t="n">
         <v>34952180</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>115620025</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
+        <v>234951977</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.6701999999999999</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>75000000000000</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>4.6743</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>6.367955937448558</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1963,36 +1859,33 @@
         <v>32</v>
       </c>
       <c r="D35" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" t="n">
         <v>13743111</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>31713110</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
+        <v>1819483</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.05429999999999999</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>19000000000000</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>1.7649</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>6.372486333278462</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2007,36 +1900,33 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
+        <v>44</v>
+      </c>
+      <c r="E36" t="n">
         <v>26347631</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>54733739</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
+        <v>67400000</v>
+      </c>
+      <c r="H36" t="n">
         <v>55.2</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>9000000000000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>13.5704</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>5.2</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2051,36 +1941,33 @@
         <v>53</v>
       </c>
       <c r="D37" t="n">
+        <v>53</v>
+      </c>
+      <c r="E37" t="n">
         <v>13582231</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>68566296</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
+        <v>118577563.8444445</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.078813333333334</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>6.856599999999999</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>6.377318755497027</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2095,36 +1982,33 @@
         <v>44</v>
       </c>
       <c r="D38" t="n">
+        <v>86</v>
+      </c>
+      <c r="E38" t="n">
         <v>8137584</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>26402818</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
+        <v>7371145</v>
+      </c>
+      <c r="H38" t="n">
         <v>21.9</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>73183333333333.33</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
         <v>7.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2139,36 +2023,33 @@
         <v>87</v>
       </c>
       <c r="D39" t="n">
+        <v>85</v>
+      </c>
+      <c r="E39" t="n">
         <v>126707459</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>718732821</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
+        <v>756440284</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.5128</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>170000000000000</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>8.6775</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2183,36 +2064,33 @@
         <v>45</v>
       </c>
       <c r="D40" t="n">
+        <v>78</v>
+      </c>
+      <c r="E40" t="n">
         <v>47776293</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>110500138</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
+        <v>275400000</v>
+      </c>
+      <c r="H40" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>170000000000000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>2.27</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>6</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2227,36 +2105,33 @@
         <v>89</v>
       </c>
       <c r="D41" t="n">
+        <v>78</v>
+      </c>
+      <c r="E41" t="n">
         <v>10845330</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>32316575</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
+        <v>9325905</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.224</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>15000000000000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>2.7762</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41" t="n">
         <v>6.455806672530161</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2271,36 +2146,33 @@
         <v>53</v>
       </c>
       <c r="D42" t="n">
+        <v>54</v>
+      </c>
+      <c r="E42" t="n">
         <v>8351109</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>17199425</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
+        <v>38400000</v>
+      </c>
+      <c r="H42" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>48000000000000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>1.1583</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2315,36 +2187,33 @@
         <v>44</v>
       </c>
       <c r="D43" t="n">
+        <v>69</v>
+      </c>
+      <c r="E43" t="n">
         <v>918112</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>6306897</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
+        <v>724392</v>
+      </c>
+      <c r="H43" t="n">
         <v>10</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>60000000000000</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>0.1172</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43" t="n">
         <v>5.4</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2359,36 +2228,33 @@
         <v>81</v>
       </c>
       <c r="D44" t="n">
+        <v>79</v>
+      </c>
+      <c r="E44" t="n">
         <v>2250430</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>12668325</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
+        <v>2881115.25</v>
+      </c>
+      <c r="H44" t="n">
         <v>25.075</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>38000000000000</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>1.5647</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>6.8</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2403,36 +2269,33 @@
         <v>70</v>
       </c>
       <c r="D45" t="n">
+        <v>75</v>
+      </c>
+      <c r="E45" t="n">
         <v>14504315</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>66220028</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
+        <v>9724832</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.1281</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>48000000000000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>1.5822</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>6.486193784032172</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2447,36 +2310,33 @@
         <v>94</v>
       </c>
       <c r="D46" t="n">
+        <v>85</v>
+      </c>
+      <c r="E46" t="n">
         <v>11001961</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>40442052</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
+        <v>186435244</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.8217</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>40000000000000</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>5.671900000000001</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46" t="n">
         <v>6.465273369634317</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2491,36 +2351,33 @@
         <v>85</v>
       </c>
       <c r="D47" t="n">
+        <v>85</v>
+      </c>
+      <c r="E47" t="n">
         <v>338999</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>4153783</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
+        <v>25419</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.0061</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>54700000000000</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>6.442958260943271</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2535,36 +2392,33 @@
         <v>36</v>
       </c>
       <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="n">
         <v>53807379</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>117450119</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
+        <v>248100000</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.6787000000000001</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>22000000000000</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>16.6159</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>6.41915547833949</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2579,36 +2433,33 @@
         <v>57</v>
       </c>
       <c r="D49" t="n">
+        <v>69</v>
+      </c>
+      <c r="E49" t="n">
         <v>12891123</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>45630104</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
+        <v>84668080</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.6498</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>90000000000000</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>1.4478</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>6.3</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,36 +2474,33 @@
         <v>86</v>
       </c>
       <c r="D50" t="n">
+        <v>84</v>
+      </c>
+      <c r="E50" t="n">
         <v>357115007</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>858373000</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
+        <v>1939427564</v>
+      </c>
+      <c r="H50" t="n">
         <v>69.3</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>356000000000000</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>7.859</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>8.4</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2667,36 +2515,33 @@
         <v>81</v>
       </c>
       <c r="D51" t="n">
+        <v>86</v>
+      </c>
+      <c r="E51" t="n">
         <v>53505326</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>56830326</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
+        <v>102300000</v>
+      </c>
+      <c r="H51" t="n">
         <v>64.3</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>100000000000000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>1.5913</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>7</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/edited_final.xlsx
+++ b/edited_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:AV51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,57 +441,232 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>metacritic critics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>average critics</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rotten tomatoes audience</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>metacritic audience</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rotten tomatoes vs metacritic deviance</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>average audience</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>audience vs critics deviance</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>opening weekend</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>opening weekend ($million)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>domestic gross</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>domestic gross ($million)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross ($million)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>foreign gross</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>worldwide gross</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>worldwide gross ($million)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>of gross earned abroad</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>budget ($million)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>budget recovered</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>budget recovered opening weekend</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>imdb rating</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>metacritic audience</t>
+          <t>adaptation</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>metacritic critics</t>
+          <t>based on a true story</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>remake</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>sequel</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>mystery</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>documentary</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>_fall</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>western</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
         </is>
       </c>
     </row>
@@ -500,39 +675,144 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
+        <v>53.76923076923077</v>
+      </c>
+      <c r="D2" t="n">
         <v>54</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.92307692307692</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.30769230769231</v>
+      </c>
+      <c r="H2" t="n">
         <v>66.30769230769231</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>-12.30769230769231</v>
+      </c>
+      <c r="J2" t="n">
         <v>21000000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>21</v>
+      </c>
+      <c r="L2" t="n">
         <v>3640355</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="O2" t="n">
         <v>62525155</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
+        <v>66165510</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="R2" t="n">
         <v>94.40000000000001</v>
       </c>
-      <c r="I2" t="n">
-        <v>21000000000000</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="S2" t="n">
+        <v>21</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.1507</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.5</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,39 +821,144 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
+        <v>60.71428571428572</v>
+      </c>
+      <c r="D3" t="n">
         <v>40</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>84</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>55.875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="H3" t="n">
+        <v>84</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-44</v>
+      </c>
+      <c r="J3" t="n">
         <v>1399373</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L3" t="n">
         <v>3973263</v>
       </c>
-      <c r="G3" t="n">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>115.6875</v>
+      </c>
+      <c r="O3" t="n">
         <v>115674827.125</v>
       </c>
-      <c r="H3" t="n">
+      <c r="P3" t="n">
+        <v>221767710.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>221.7625</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.4687875</v>
       </c>
-      <c r="I3" t="n">
-        <v>63614285714285.72</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="S3" t="n">
+        <v>63.61428571428571</v>
+      </c>
+      <c r="T3" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="K3" t="n">
+      <c r="U3" t="n">
+        <v>0.7729666666666667</v>
+      </c>
+      <c r="V3" t="n">
         <v>4.9</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -582,39 +967,144 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
         <v>36</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" t="n">
+        <v>66</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="n">
         <v>80</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>-44</v>
+      </c>
+      <c r="J4" t="n">
         <v>8901419</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L4" t="n">
         <v>21360215</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>223.65</v>
+      </c>
+      <c r="O4" t="n">
         <v>223648651.4166667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
+        <v>21360215</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="R4" t="n">
         <v>51.29999999999999</v>
       </c>
-      <c r="I4" t="n">
-        <v>44000000000000</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="S4" t="n">
+        <v>44</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.4855</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="V4" t="n">
         <v>6.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -623,39 +1113,144 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
         <v>65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
         <v>70</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J5" t="n">
         <v>2919717</v>
       </c>
-      <c r="F5" t="n">
+      <c r="K5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L5" t="n">
         <v>8286741</v>
       </c>
-      <c r="G5" t="n">
+      <c r="M5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
         <v>12959213</v>
       </c>
-      <c r="H5" t="n">
+      <c r="P5" t="n">
+        <v>21245954</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.61</v>
       </c>
-      <c r="I5" t="n">
-        <v>60000000000000</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="S5" t="n">
+        <v>60</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.3541</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="V5" t="n">
         <v>6.7</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,39 +1259,144 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
         <v>64</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>70</v>
+      </c>
+      <c r="F6" t="n">
+        <v>44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26</v>
+      </c>
+      <c r="H6" t="n">
         <v>57</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
         <v>14711101</v>
       </c>
-      <c r="F6" t="n">
+      <c r="K6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L6" t="n">
         <v>50316123</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>41</v>
+      </c>
+      <c r="O6" t="n">
         <v>40928790</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
+        <v>91244913</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>912</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.4486</v>
       </c>
-      <c r="I6" t="n">
-        <v>12000000000000</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="S6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T6" t="n">
         <v>7.6037</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>1.2259</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.7</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,39 +1405,144 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
         <v>57</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>94</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34</v>
+      </c>
+      <c r="H7" t="n">
         <v>77</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
+        <v>-21</v>
+      </c>
+      <c r="J7" t="n">
         <v>16627491</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="L7" t="n">
         <v>48947356</v>
       </c>
-      <c r="G7" t="n">
+      <c r="M7" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>41</v>
+      </c>
+      <c r="O7" t="n">
         <v>40928790</v>
       </c>
-      <c r="H7" t="n">
+      <c r="P7" t="n">
+        <v>78418101</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.4486</v>
       </c>
-      <c r="I7" t="n">
-        <v>64000000000000</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
+        <v>64</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.2253</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>0.2598</v>
+      </c>
+      <c r="V7" t="n">
         <v>5.9</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,39 +1551,144 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" t="n">
         <v>54</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-17</v>
+      </c>
+      <c r="H8" t="n">
         <v>47</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
         <v>2540240</v>
       </c>
-      <c r="F8" t="n">
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
         <v>6782066</v>
       </c>
-      <c r="G8" t="n">
+      <c r="M8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
         <v>8961988</v>
       </c>
-      <c r="H8" t="n">
+      <c r="P8" t="n">
+        <v>15744054</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="R8" t="n">
         <v>57.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>73183333333333.33</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="S8" t="n">
+        <v>73.18333333333334</v>
+      </c>
+      <c r="T8" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>0.62115</v>
+      </c>
+      <c r="V8" t="n">
         <v>5.5</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -787,39 +1697,144 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
+        <v>59</v>
+      </c>
+      <c r="D9" t="n">
         <v>67</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>91</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70</v>
+      </c>
+      <c r="G9" t="n">
+        <v>21</v>
+      </c>
+      <c r="H9" t="n">
         <v>81</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
+        <v>-14</v>
+      </c>
+      <c r="J9" t="n">
         <v>31625971</v>
       </c>
-      <c r="F9" t="n">
+      <c r="K9" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="L9" t="n">
         <v>100916094</v>
       </c>
-      <c r="G9" t="n">
+      <c r="M9" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30.8625</v>
+      </c>
+      <c r="O9" t="n">
         <v>30813958.125</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
+        <v>468043852</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>468</v>
+      </c>
+      <c r="R9" t="n">
         <v>12.753675</v>
       </c>
-      <c r="I9" t="n">
-        <v>155000000000000</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="S9" t="n">
+        <v>155</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.0196</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.3</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -828,39 +1843,144 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
+        <v>56</v>
+      </c>
+      <c r="D10" t="n">
         <v>54</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>61</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-29</v>
+      </c>
+      <c r="H10" t="n">
         <v>47</v>
       </c>
-      <c r="E10" t="n">
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
         <v>1763070</v>
       </c>
-      <c r="F10" t="n">
+      <c r="K10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L10" t="n">
         <v>3005408</v>
       </c>
-      <c r="G10" t="n">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>208.3178571428572</v>
+      </c>
+      <c r="O10" t="n">
         <v>208313889.7440476</v>
       </c>
-      <c r="H10" t="n">
+      <c r="P10" t="n">
+        <v>3005408</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
         <v>51.72857142857141</v>
       </c>
-      <c r="I10" t="n">
-        <v>5000000000000</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
         <v>0.6011</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V10" t="n">
         <v>5.5</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -869,39 +1989,144 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
+        <v>38</v>
+      </c>
+      <c r="D11" t="n">
         <v>31</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+      <c r="H11" t="n">
         <v>55</v>
       </c>
-      <c r="E11" t="n">
+      <c r="I11" t="n">
+        <v>-24</v>
+      </c>
+      <c r="J11" t="n">
         <v>30035838</v>
       </c>
-      <c r="F11" t="n">
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
         <v>80001807</v>
       </c>
-      <c r="G11" t="n">
+      <c r="M11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N11" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="O11" t="n">
         <v>173888894</v>
       </c>
-      <c r="H11" t="n">
+      <c r="P11" t="n">
+        <v>253890701</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>253.9</v>
+      </c>
+      <c r="R11" t="n">
         <v>68.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>110000000000000</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="S11" t="n">
+        <v>110</v>
+      </c>
+      <c r="T11" t="n">
         <v>2.3081</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="V11" t="n">
         <v>5.6</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -910,39 +2135,144 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C12" t="n">
+        <v>57</v>
+      </c>
+      <c r="D12" t="n">
         <v>62</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>46</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-14</v>
+      </c>
+      <c r="H12" t="n">
         <v>53</v>
       </c>
-      <c r="E12" t="n">
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
         <v>26608020</v>
       </c>
-      <c r="F12" t="n">
+      <c r="K12" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L12" t="n">
         <v>68549695</v>
       </c>
-      <c r="G12" t="n">
+      <c r="M12" t="n">
+        <v>69</v>
+      </c>
+      <c r="N12" t="n">
+        <v>63</v>
+      </c>
+      <c r="O12" t="n">
         <v>62907452</v>
       </c>
-      <c r="H12" t="n">
+      <c r="P12" t="n">
+        <v>131457147</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1315</v>
+      </c>
+      <c r="R12" t="n">
         <v>0.4785</v>
       </c>
-      <c r="I12" t="n">
-        <v>42000000000000</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="S12" t="n">
+        <v>42</v>
+      </c>
+      <c r="T12" t="n">
         <v>3.1299</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>0.6335000000000001</v>
+      </c>
+      <c r="V12" t="n">
         <v>6.199999999999999</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -951,39 +2281,144 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
+        <v>44</v>
+      </c>
+      <c r="D13" t="n">
         <v>54</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>94</v>
+      </c>
+      <c r="F13" t="n">
+        <v>66</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28</v>
+      </c>
+      <c r="H13" t="n">
         <v>80</v>
       </c>
-      <c r="E13" t="n">
+      <c r="I13" t="n">
+        <v>-27</v>
+      </c>
+      <c r="J13" t="n">
         <v>251569</v>
       </c>
-      <c r="F13" t="n">
+      <c r="K13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L13" t="n">
         <v>3689637</v>
       </c>
-      <c r="G13" t="n">
+      <c r="M13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>33.59531250000001</v>
+      </c>
+      <c r="O13" t="n">
         <v>33545454.390625</v>
       </c>
-      <c r="H13" t="n">
+      <c r="P13" t="n">
+        <v>5599772</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R13" t="n">
         <v>7.185384375</v>
       </c>
-      <c r="I13" t="n">
-        <v>59857142857142.86</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="S13" t="n">
+        <v>59.85714285714285</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.72075</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>0.2054</v>
+      </c>
+      <c r="V13" t="n">
         <v>6.9</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,39 +2427,144 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C14" t="n">
+        <v>84</v>
+      </c>
+      <c r="D14" t="n">
         <v>89</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>94</v>
+      </c>
+      <c r="F14" t="n">
+        <v>69</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
         <v>82</v>
       </c>
-      <c r="E14" t="n">
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
         <v>11504710</v>
       </c>
-      <c r="F14" t="n">
+      <c r="K14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L14" t="n">
         <v>29975167</v>
       </c>
-      <c r="G14" t="n">
+      <c r="M14" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" t="n">
+        <v>29.9197265625</v>
+      </c>
+      <c r="O14" t="n">
         <v>29875204.68945312</v>
       </c>
-      <c r="H14" t="n">
+      <c r="P14" t="n">
+        <v>43646976</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="R14" t="n">
         <v>8.023744921875</v>
       </c>
-      <c r="I14" t="n">
-        <v>55000000000000</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="S14" t="n">
+        <v>55</v>
+      </c>
+      <c r="T14" t="n">
         <v>0.7936</v>
       </c>
-      <c r="K14" t="n">
+      <c r="U14" t="n">
+        <v>0.2092</v>
+      </c>
+      <c r="V14" t="n">
         <v>7.3</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,39 +2573,144 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
+        <v>39</v>
+      </c>
+      <c r="D15" t="n">
         <v>25</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>71</v>
+      </c>
+      <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" t="n">
         <v>46</v>
       </c>
-      <c r="E15" t="n">
+      <c r="I15" t="n">
+        <v>-21</v>
+      </c>
+      <c r="J15" t="n">
         <v>3106730</v>
       </c>
-      <c r="F15" t="n">
+      <c r="K15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L15" t="n">
         <v>6546159</v>
       </c>
-      <c r="G15" t="n">
+      <c r="M15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O15" t="n">
         <v>906254</v>
       </c>
-      <c r="H15" t="n">
+      <c r="P15" t="n">
+        <v>7452413</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R15" t="n">
         <v>12</v>
       </c>
-      <c r="I15" t="n">
-        <v>5000000000000</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.4905</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V15" t="n">
         <v>6</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1074,39 +2719,144 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
         <v>37</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>65</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
+      <c r="H16" t="n">
         <v>51</v>
       </c>
-      <c r="E16" t="n">
+      <c r="I16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="J16" t="n">
         <v>5319280</v>
       </c>
-      <c r="F16" t="n">
+      <c r="K16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L16" t="n">
         <v>17000612</v>
       </c>
-      <c r="G16" t="n">
+      <c r="M16" t="n">
+        <v>17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>25.7846923828125</v>
+      </c>
+      <c r="O16" t="n">
         <v>25746173.77563477</v>
       </c>
-      <c r="H16" t="n">
+      <c r="P16" t="n">
+        <v>41909091</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="R16" t="n">
         <v>8.966900537109375</v>
       </c>
-      <c r="I16" t="n">
-        <v>25000000000000</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
+        <v>25</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.6764</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>0.2128</v>
+      </c>
+      <c r="V16" t="n">
         <v>5.2</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1115,39 +2865,144 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C17" t="n">
+        <v>70</v>
+      </c>
+      <c r="D17" t="n">
         <v>79</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>80</v>
+      </c>
+      <c r="F17" t="n">
+        <v>74</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
         <v>77</v>
       </c>
-      <c r="E17" t="n">
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
         <v>75812205</v>
       </c>
-      <c r="F17" t="n">
+      <c r="K17" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="L17" t="n">
         <v>211630916</v>
       </c>
-      <c r="G17" t="n">
+      <c r="M17" t="n">
+        <v>212</v>
+      </c>
+      <c r="N17" t="n">
+        <v>333</v>
+      </c>
+      <c r="O17" t="n">
         <v>333301651</v>
       </c>
-      <c r="H17" t="n">
+      <c r="P17" t="n">
+        <v>544932567</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5449</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.6115999999999999</v>
       </c>
-      <c r="I17" t="n">
-        <v>195000000000000</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="S17" t="n">
+        <v>195</v>
+      </c>
+      <c r="T17" t="n">
         <v>2.7945</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>0.3888</v>
+      </c>
+      <c r="V17" t="n">
         <v>6.239999999999998</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1156,39 +3011,144 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C18" t="n">
+        <v>51</v>
+      </c>
+      <c r="D18" t="n">
         <v>58</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>58</v>
+      </c>
+      <c r="F18" t="n">
+        <v>65</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H18" t="n">
         <v>62</v>
       </c>
-      <c r="E18" t="n">
+      <c r="I18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J18" t="n">
         <v>25010928</v>
       </c>
-      <c r="F18" t="n">
+      <c r="K18" t="n">
+        <v>25</v>
+      </c>
+      <c r="L18" t="n">
         <v>115234093</v>
       </c>
-      <c r="G18" t="n">
+      <c r="M18" t="n">
+        <v>115</v>
+      </c>
+      <c r="N18" t="n">
+        <v>236</v>
+      </c>
+      <c r="O18" t="n">
         <v>235984098</v>
       </c>
-      <c r="H18" t="n">
+      <c r="P18" t="n">
+        <v>351218191</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3512</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.6718999999999999</v>
       </c>
-      <c r="I18" t="n">
-        <v>50000000000000</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="S18" t="n">
+        <v>50</v>
+      </c>
+      <c r="T18" t="n">
         <v>7.024400000000001</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>0.5002</v>
+      </c>
+      <c r="V18" t="n">
         <v>6.309333333333332</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1197,39 +3157,144 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C19" t="n">
+        <v>63</v>
+      </c>
+      <c r="D19" t="n">
         <v>75</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>97</v>
+      </c>
+      <c r="F19" t="n">
+        <v>62</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35</v>
+      </c>
+      <c r="H19" t="n">
         <v>80</v>
       </c>
-      <c r="E19" t="n">
+      <c r="I19" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J19" t="n">
         <v>16000495</v>
       </c>
-      <c r="F19" t="n">
+      <c r="K19" t="n">
+        <v>16</v>
+      </c>
+      <c r="L19" t="n">
         <v>44141550</v>
       </c>
-      <c r="G19" t="n">
+      <c r="M19" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="O19" t="n">
         <v>48559860</v>
       </c>
-      <c r="H19" t="n">
+      <c r="P19" t="n">
+        <v>92701410</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.5238</v>
       </c>
-      <c r="I19" t="n">
-        <v>40000000000000</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="S19" t="n">
+        <v>40</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.3175</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="V19" t="n">
         <v>7.4</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1238,39 +3303,144 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C20" t="n">
+        <v>53</v>
+      </c>
+      <c r="D20" t="n">
         <v>65</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>98</v>
+      </c>
+      <c r="F20" t="n">
+        <v>54</v>
+      </c>
+      <c r="G20" t="n">
+        <v>44</v>
+      </c>
+      <c r="H20" t="n">
         <v>76</v>
       </c>
-      <c r="E20" t="n">
+      <c r="I20" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J20" t="n">
         <v>5861836</v>
       </c>
-      <c r="F20" t="n">
+      <c r="K20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L20" t="n">
         <v>26514814</v>
       </c>
-      <c r="G20" t="n">
+      <c r="M20" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>28.89527893066406</v>
+      </c>
+      <c r="O20" t="n">
         <v>28851163.74758911</v>
       </c>
-      <c r="H20" t="n">
+      <c r="P20" t="n">
+        <v>114475227.8571429</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>114.4571428571429</v>
+      </c>
+      <c r="R20" t="n">
         <v>8.587763104248047</v>
       </c>
-      <c r="I20" t="n">
-        <v>25000000000000</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="S20" t="n">
+        <v>25</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.72075</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>0.2345</v>
+      </c>
+      <c r="V20" t="n">
         <v>7.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1279,39 +3449,144 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C21" t="n">
+        <v>71</v>
+      </c>
+      <c r="D21" t="n">
         <v>80</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>67</v>
+      </c>
+      <c r="F21" t="n">
         <v>68</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
         <v>56237634</v>
       </c>
-      <c r="F21" t="n">
+      <c r="K21" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="L21" t="n">
         <v>187164171</v>
       </c>
-      <c r="G21" t="n">
+      <c r="M21" t="n">
+        <v>187</v>
+      </c>
+      <c r="N21" t="n">
+        <v>218</v>
+      </c>
+      <c r="O21" t="n">
         <v>217884434</v>
       </c>
-      <c r="H21" t="n">
+      <c r="P21" t="n">
+        <v>405048605</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4050</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.5379</v>
       </c>
-      <c r="I21" t="n">
-        <v>175000000000000</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="S21" t="n">
+        <v>175</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.3146</v>
       </c>
-      <c r="K21" t="n">
+      <c r="U21" t="n">
+        <v>0.3214</v>
+      </c>
+      <c r="V21" t="n">
         <v>6.383288888888887</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1320,39 +3595,144 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C22" t="n">
+        <v>59</v>
+      </c>
+      <c r="D22" t="n">
         <v>72</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>80</v>
+      </c>
+      <c r="F22" t="n">
+        <v>73</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
         <v>77</v>
       </c>
-      <c r="E22" t="n">
+      <c r="I22" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J22" t="n">
         <v>805000</v>
       </c>
-      <c r="F22" t="n">
+      <c r="K22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L22" t="n">
         <v>10640105</v>
       </c>
-      <c r="G22" t="n">
+      <c r="M22" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O22" t="n">
         <v>4739790</v>
       </c>
-      <c r="H22" t="n">
+      <c r="P22" t="n">
+        <v>15379895</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.3082</v>
       </c>
-      <c r="I22" t="n">
-        <v>300000000000</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="S22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T22" t="n">
         <v>61.5196</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V22" t="n">
         <v>6.1</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1361,39 +3741,144 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" t="n">
         <v>30</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>52</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" t="n">
         <v>47</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
+        <v>-17</v>
+      </c>
+      <c r="J23" t="n">
         <v>4003993</v>
       </c>
-      <c r="F23" t="n">
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
         <v>9561064</v>
       </c>
-      <c r="G23" t="n">
+      <c r="M23" t="n">
+        <v>10</v>
+      </c>
+      <c r="N23" t="n">
+        <v>18</v>
+      </c>
+      <c r="O23" t="n">
         <v>17804403</v>
       </c>
-      <c r="H23" t="n">
+      <c r="P23" t="n">
+        <v>27365467</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>274</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.6506000000000001</v>
       </c>
-      <c r="I23" t="n">
-        <v>2800000000000</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T23" t="n">
         <v>9.773400000000001</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V23" t="n">
         <v>6.335508148148147</v>
       </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1402,39 +3887,144 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="C24" t="n">
+        <v>65</v>
+      </c>
+      <c r="D24" t="n">
         <v>73</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>86</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
+      </c>
+      <c r="G24" t="n">
+        <v>22</v>
+      </c>
+      <c r="H24" t="n">
         <v>75</v>
       </c>
-      <c r="E24" t="n">
+      <c r="I24" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J24" t="n">
         <v>1755325</v>
       </c>
-      <c r="F24" t="n">
+      <c r="K24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L24" t="n">
         <v>4330720</v>
       </c>
-      <c r="G24" t="n">
+      <c r="M24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O24" t="n">
         <v>102933</v>
       </c>
-      <c r="H24" t="n">
+      <c r="P24" t="n">
+        <v>4433653</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.0232</v>
       </c>
-      <c r="I24" t="n">
-        <v>63614285714285.72</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="S24" t="n">
+        <v>63.61428571428571</v>
+      </c>
+      <c r="T24" t="n">
         <v>10.82652857142857</v>
       </c>
-      <c r="K24" t="n">
+      <c r="U24" t="n">
+        <v>0.7729666666666667</v>
+      </c>
+      <c r="V24" t="n">
         <v>6.8</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1443,39 +4033,144 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C25" t="n">
+        <v>67</v>
+      </c>
+      <c r="D25" t="n">
         <v>75</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>80</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16</v>
+      </c>
+      <c r="H25" t="n">
         <v>72</v>
       </c>
-      <c r="E25" t="n">
+      <c r="I25" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
         <v>3600355</v>
       </c>
-      <c r="F25" t="n">
+      <c r="K25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L25" t="n">
         <v>9030855</v>
       </c>
-      <c r="G25" t="n">
+      <c r="M25" t="n">
+        <v>9</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
         <v>9042578</v>
       </c>
-      <c r="H25" t="n">
+      <c r="P25" t="n">
+        <v>18073433</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>18</v>
+      </c>
+      <c r="R25" t="n">
         <v>50</v>
       </c>
-      <c r="I25" t="n">
-        <v>6000000000000</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
         <v>3.0122</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V25" t="n">
         <v>6.3</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,36 +4182,141 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>60.71428571428572</v>
+      </c>
+      <c r="D26" t="n">
         <v>63.625</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="E26" t="n">
+      <c r="I26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J26" t="n">
         <v>21115423.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="K26" t="n">
+        <v>21.1125</v>
+      </c>
+      <c r="L26" t="n">
         <v>2033057</v>
       </c>
-      <c r="G26" t="n">
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O26" t="n">
         <v>3475600</v>
       </c>
-      <c r="H26" t="n">
+      <c r="P26" t="n">
+        <v>5508657</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.6309</v>
       </c>
-      <c r="I26" t="n">
-        <v>5000000000000</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.1017</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="n">
+        <v>0.7729666666666667</v>
+      </c>
+      <c r="V26" t="n">
         <v>2.5</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1525,39 +4325,144 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
         <v>34</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>81</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55</v>
+      </c>
+      <c r="H27" t="n">
         <v>54</v>
       </c>
-      <c r="E27" t="n">
+      <c r="I27" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J27" t="n">
         <v>700160</v>
       </c>
-      <c r="F27" t="n">
+      <c r="K27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L27" t="n">
         <v>2241980</v>
       </c>
-      <c r="G27" t="n">
+      <c r="M27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
         <v>1033099</v>
       </c>
-      <c r="H27" t="n">
+      <c r="P27" t="n">
+        <v>3275079</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R27" t="n">
         <v>30.3</v>
       </c>
-      <c r="I27" t="n">
-        <v>34666666666666.66</v>
-      </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.5647</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="n">
+        <v>0.2251666666666667</v>
+      </c>
+      <c r="V27" t="n">
         <v>6.1</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1566,39 +4471,144 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C28" t="n">
+        <v>70</v>
+      </c>
+      <c r="D28" t="n">
         <v>83</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>96</v>
+      </c>
+      <c r="F28" t="n">
+        <v>78</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+      <c r="H28" t="n">
         <v>87</v>
       </c>
-      <c r="E28" t="n">
+      <c r="I28" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J28" t="n">
         <v>204793</v>
       </c>
-      <c r="F28" t="n">
+      <c r="K28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L28" t="n">
         <v>20437883</v>
       </c>
-      <c r="G28" t="n">
+      <c r="M28" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O28" t="n">
         <v>315805</v>
       </c>
-      <c r="H28" t="n">
+      <c r="P28" t="n">
+        <v>20753688</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.4</v>
       </c>
-      <c r="I28" t="n">
-        <v>6200000000000</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="S28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T28" t="n">
         <v>3.3474</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="V28" t="n">
         <v>7.6</v>
       </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,39 +4617,144 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C29" t="n">
+        <v>70</v>
+      </c>
+      <c r="D29" t="n">
         <v>75</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>59</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18</v>
+      </c>
+      <c r="H29" t="n">
         <v>68</v>
       </c>
-      <c r="E29" t="n">
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
         <v>246305</v>
       </c>
-      <c r="F29" t="n">
+      <c r="K29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L29" t="n">
         <v>15500045</v>
       </c>
-      <c r="G29" t="n">
+      <c r="M29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O29" t="n">
         <v>6887012</v>
       </c>
-      <c r="H29" t="n">
+      <c r="P29" t="n">
+        <v>22387057</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="R29" t="n">
         <v>30.8</v>
       </c>
-      <c r="I29" t="n">
-        <v>4000000000000</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
         <v>5.596799999999999</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V29" t="n">
         <v>6.5</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1648,39 +4763,144 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C30" t="n">
+        <v>43</v>
+      </c>
+      <c r="D30" t="n">
         <v>55</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>89</v>
+      </c>
+      <c r="F30" t="n">
+        <v>54</v>
+      </c>
+      <c r="G30" t="n">
+        <v>35</v>
+      </c>
+      <c r="H30" t="n">
         <v>72</v>
       </c>
-      <c r="E30" t="n">
+      <c r="I30" t="n">
+        <v>-17</v>
+      </c>
+      <c r="J30" t="n">
         <v>10101066</v>
       </c>
-      <c r="F30" t="n">
+      <c r="K30" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L30" t="n">
         <v>40501717</v>
       </c>
-      <c r="G30" t="n">
+      <c r="M30" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>26.43218879699707</v>
+      </c>
+      <c r="O30" t="n">
         <v>26387576.71603775</v>
       </c>
-      <c r="H30" t="n">
+      <c r="P30" t="n">
+        <v>150976764</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>151</v>
+      </c>
+      <c r="R30" t="n">
         <v>9.595758492279053</v>
       </c>
-      <c r="I30" t="n">
-        <v>45000000000000</v>
-      </c>
-      <c r="J30" t="n">
+      <c r="S30" t="n">
+        <v>45</v>
+      </c>
+      <c r="T30" t="n">
         <v>3.355</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="V30" t="n">
         <v>6.2</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1689,39 +4909,144 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
+        <v>48</v>
+      </c>
+      <c r="D31" t="n">
         <v>40</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>62</v>
+      </c>
+      <c r="F31" t="n">
+        <v>52</v>
+      </c>
+      <c r="G31" t="n">
+        <v>10</v>
+      </c>
+      <c r="H31" t="n">
         <v>57</v>
       </c>
-      <c r="E31" t="n">
+      <c r="I31" t="n">
+        <v>-17</v>
+      </c>
+      <c r="J31" t="n">
         <v>6444896</v>
       </c>
-      <c r="F31" t="n">
+      <c r="K31" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L31" t="n">
         <v>14947969</v>
       </c>
-      <c r="G31" t="n">
+      <c r="M31" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O31" t="n">
         <v>14452857</v>
       </c>
-      <c r="H31" t="n">
+      <c r="P31" t="n">
+        <v>29400826</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.4916</v>
       </c>
-      <c r="I31" t="n">
-        <v>80000000000000</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="S31" t="n">
+        <v>80</v>
+      </c>
+      <c r="T31" t="n">
         <v>0.3675</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="n">
+        <v>0.0806</v>
+      </c>
+      <c r="V31" t="n">
         <v>6.1</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1730,39 +5055,144 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C32" t="n">
+        <v>61</v>
+      </c>
+      <c r="D32" t="n">
         <v>62</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>54</v>
+      </c>
+      <c r="F32" t="n">
+        <v>62</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H32" t="n">
         <v>58</v>
       </c>
-      <c r="E32" t="n">
+      <c r="I32" t="n">
+        <v>4</v>
+      </c>
+      <c r="J32" t="n">
         <v>7768371</v>
       </c>
-      <c r="F32" t="n">
+      <c r="K32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L32" t="n">
         <v>29796477</v>
       </c>
-      <c r="G32" t="n">
+      <c r="M32" t="n">
+        <v>30</v>
+      </c>
+      <c r="N32" t="n">
+        <v>124.46</v>
+      </c>
+      <c r="O32" t="n">
         <v>112069769.6666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>60000000000000</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="P32" t="n">
+        <v>29796477</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>298</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>60</v>
+      </c>
+      <c r="T32" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="K32" t="n">
+      <c r="U32" t="n">
+        <v>0.8302538461538462</v>
+      </c>
+      <c r="V32" t="n">
         <v>6.351208691358024</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,39 +5201,144 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C33" t="n">
+        <v>60</v>
+      </c>
+      <c r="D33" t="n">
         <v>66</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>59</v>
+      </c>
+      <c r="F33" t="n">
+        <v>49</v>
+      </c>
+      <c r="G33" t="n">
+        <v>10</v>
+      </c>
+      <c r="H33" t="n">
         <v>54</v>
       </c>
-      <c r="E33" t="n">
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
         <v>4651571</v>
       </c>
-      <c r="F33" t="n">
+      <c r="K33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L33" t="n">
         <v>8237403</v>
       </c>
-      <c r="G33" t="n">
+      <c r="M33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>28.87371239662171</v>
+      </c>
+      <c r="O33" t="n">
         <v>28825147.30554247</v>
       </c>
-      <c r="H33" t="n">
+      <c r="P33" t="n">
+        <v>12732039</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="R33" t="n">
         <v>6.945228303813934</v>
       </c>
-      <c r="I33" t="n">
-        <v>50000000000000</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="S33" t="n">
+        <v>50</v>
+      </c>
+      <c r="T33" t="n">
         <v>0.2546</v>
       </c>
-      <c r="K33" t="n">
+      <c r="U33" t="n">
+        <v>0.09300000000000001</v>
+      </c>
+      <c r="V33" t="n">
         <v>6.3</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,39 +5347,144 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C34" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" t="n">
         <v>70</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>74</v>
+      </c>
+      <c r="F34" t="n">
+        <v>68</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" t="n">
         <v>71</v>
       </c>
-      <c r="E34" t="n">
+      <c r="I34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="n">
         <v>34952180</v>
       </c>
-      <c r="F34" t="n">
+      <c r="K34" t="n">
+        <v>35</v>
+      </c>
+      <c r="L34" t="n">
         <v>115620025</v>
       </c>
-      <c r="G34" t="n">
+      <c r="M34" t="n">
+        <v>116</v>
+      </c>
+      <c r="N34" t="n">
+        <v>235</v>
+      </c>
+      <c r="O34" t="n">
         <v>234951977</v>
       </c>
-      <c r="H34" t="n">
+      <c r="P34" t="n">
+        <v>350572002</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3506</v>
+      </c>
+      <c r="R34" t="n">
         <v>0.6701999999999999</v>
       </c>
-      <c r="I34" t="n">
-        <v>75000000000000</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="S34" t="n">
+        <v>75</v>
+      </c>
+      <c r="T34" t="n">
         <v>4.6743</v>
       </c>
-      <c r="K34" t="n">
+      <c r="U34" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="V34" t="n">
         <v>6.367955937448558</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1853,39 +5493,144 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
+        <v>39</v>
+      </c>
+      <c r="D35" t="n">
         <v>32</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>38</v>
+      </c>
+      <c r="F35" t="n">
+        <v>31</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7</v>
+      </c>
+      <c r="H35" t="n">
         <v>35</v>
       </c>
-      <c r="E35" t="n">
+      <c r="I35" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J35" t="n">
         <v>13743111</v>
       </c>
-      <c r="F35" t="n">
+      <c r="K35" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L35" t="n">
         <v>31713110</v>
       </c>
-      <c r="G35" t="n">
+      <c r="M35" t="n">
+        <v>32</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
         <v>1819483</v>
       </c>
-      <c r="H35" t="n">
+      <c r="P35" t="n">
+        <v>33532593</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>335</v>
+      </c>
+      <c r="R35" t="n">
         <v>0.05429999999999999</v>
       </c>
-      <c r="I35" t="n">
-        <v>19000000000000</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="S35" t="n">
+        <v>19</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.7649</v>
       </c>
-      <c r="K35" t="n">
+      <c r="U35" t="n">
+        <v>0.7232999999999999</v>
+      </c>
+      <c r="V35" t="n">
         <v>6.372486333278462</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1894,39 +5639,144 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
+        <v>41</v>
+      </c>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>40</v>
+      </c>
+      <c r="F36" t="n">
+        <v>47</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H36" t="n">
         <v>44</v>
       </c>
-      <c r="E36" t="n">
+      <c r="I36" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J36" t="n">
         <v>26347631</v>
       </c>
-      <c r="F36" t="n">
+      <c r="K36" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="L36" t="n">
         <v>54733739</v>
       </c>
-      <c r="G36" t="n">
+      <c r="M36" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="N36" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="O36" t="n">
         <v>67400000</v>
       </c>
-      <c r="H36" t="n">
+      <c r="P36" t="n">
+        <v>122133739</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="R36" t="n">
         <v>55.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>9000000000000</v>
-      </c>
-      <c r="J36" t="n">
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
         <v>13.5704</v>
       </c>
-      <c r="K36" t="n">
+      <c r="U36" t="n">
+        <v>2.9222</v>
+      </c>
+      <c r="V36" t="n">
         <v>5.2</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +5785,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
         <v>53</v>
@@ -1944,30 +5794,135 @@
         <v>53</v>
       </c>
       <c r="E37" t="n">
+        <v>57</v>
+      </c>
+      <c r="F37" t="n">
+        <v>48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>53</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
         <v>13582231</v>
       </c>
-      <c r="F37" t="n">
+      <c r="K37" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="L37" t="n">
         <v>68566296</v>
       </c>
-      <c r="G37" t="n">
+      <c r="M37" t="n">
+        <v>69</v>
+      </c>
+      <c r="N37" t="n">
+        <v>131.7906666666667</v>
+      </c>
+      <c r="O37" t="n">
         <v>118577563.8444445</v>
       </c>
-      <c r="H37" t="n">
+      <c r="P37" t="n">
+        <v>68566296</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>686</v>
+      </c>
+      <c r="R37" t="n">
         <v>4.078813333333334</v>
       </c>
-      <c r="I37" t="n">
-        <v>10000000000000</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
         <v>6.856599999999999</v>
       </c>
-      <c r="K37" t="n">
+      <c r="U37" t="n">
+        <v>1.3582</v>
+      </c>
+      <c r="V37" t="n">
         <v>6.377318755497027</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1976,39 +5931,144 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
+        <v>43</v>
+      </c>
+      <c r="D38" t="n">
         <v>44</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>96</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76</v>
+      </c>
+      <c r="G38" t="n">
+        <v>20</v>
+      </c>
+      <c r="H38" t="n">
         <v>86</v>
       </c>
-      <c r="E38" t="n">
+      <c r="I38" t="n">
+        <v>-43</v>
+      </c>
+      <c r="J38" t="n">
         <v>8137584</v>
       </c>
-      <c r="F38" t="n">
+      <c r="K38" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="L38" t="n">
         <v>26402818</v>
       </c>
-      <c r="G38" t="n">
+      <c r="M38" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O38" t="n">
         <v>7371145</v>
       </c>
-      <c r="H38" t="n">
+      <c r="P38" t="n">
+        <v>33773963</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="R38" t="n">
         <v>21.9</v>
       </c>
-      <c r="I38" t="n">
-        <v>73183333333333.33</v>
-      </c>
-      <c r="J38" t="n">
+      <c r="S38" t="n">
+        <v>73.18333333333334</v>
+      </c>
+      <c r="T38" t="n">
         <v>3.619091666666666</v>
       </c>
-      <c r="K38" t="n">
+      <c r="U38" t="n">
+        <v>0.62115</v>
+      </c>
+      <c r="V38" t="n">
         <v>7.5</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2017,39 +6077,144 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="C39" t="n">
+        <v>78</v>
+      </c>
+      <c r="D39" t="n">
         <v>87</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>96</v>
+      </c>
+      <c r="F39" t="n">
+        <v>73</v>
+      </c>
+      <c r="G39" t="n">
+        <v>23</v>
+      </c>
+      <c r="H39" t="n">
         <v>85</v>
       </c>
-      <c r="E39" t="n">
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
         <v>126707459</v>
       </c>
-      <c r="F39" t="n">
+      <c r="K39" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="L39" t="n">
         <v>718732821</v>
       </c>
-      <c r="G39" t="n">
+      <c r="M39" t="n">
+        <v>718.7</v>
+      </c>
+      <c r="N39" t="n">
+        <v>756.4</v>
+      </c>
+      <c r="O39" t="n">
         <v>756440284</v>
       </c>
-      <c r="H39" t="n">
+      <c r="P39" t="n">
+        <v>1475173105</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1475.2</v>
+      </c>
+      <c r="R39" t="n">
         <v>0.5128</v>
       </c>
-      <c r="I39" t="n">
-        <v>170000000000000</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="S39" t="n">
+        <v>170</v>
+      </c>
+      <c r="T39" t="n">
         <v>8.6775</v>
       </c>
-      <c r="K39" t="n">
+      <c r="U39" t="n">
+        <v>0.7453</v>
+      </c>
+      <c r="V39" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,39 +6223,144 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C40" t="n">
+        <v>48</v>
+      </c>
+      <c r="D40" t="n">
         <v>45</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>83</v>
+      </c>
+      <c r="F40" t="n">
+        <v>73</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10</v>
+      </c>
+      <c r="H40" t="n">
         <v>78</v>
       </c>
-      <c r="E40" t="n">
+      <c r="I40" t="n">
+        <v>-33</v>
+      </c>
+      <c r="J40" t="n">
         <v>47776293</v>
       </c>
-      <c r="F40" t="n">
+      <c r="K40" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="L40" t="n">
         <v>110500138</v>
       </c>
-      <c r="G40" t="n">
+      <c r="M40" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>275.4</v>
+      </c>
+      <c r="O40" t="n">
         <v>275400000</v>
       </c>
-      <c r="H40" t="n">
+      <c r="P40" t="n">
+        <v>385900138</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>385.9</v>
+      </c>
+      <c r="R40" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="I40" t="n">
-        <v>170000000000000</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="S40" t="n">
+        <v>170</v>
+      </c>
+      <c r="T40" t="n">
         <v>2.27</v>
       </c>
-      <c r="K40" t="n">
+      <c r="U40" t="n">
+        <v>0.2812</v>
+      </c>
+      <c r="V40" t="n">
         <v>6</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2099,39 +6369,144 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="C41" t="n">
+        <v>83</v>
+      </c>
+      <c r="D41" t="n">
         <v>89</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>79</v>
+      </c>
+      <c r="F41" t="n">
+        <v>76</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
         <v>78</v>
       </c>
-      <c r="E41" t="n">
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
         <v>10845330</v>
       </c>
-      <c r="F41" t="n">
+      <c r="K41" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L41" t="n">
         <v>32316575</v>
       </c>
-      <c r="G41" t="n">
+      <c r="M41" t="n">
+        <v>32</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9</v>
+      </c>
+      <c r="O41" t="n">
         <v>9325905</v>
       </c>
-      <c r="H41" t="n">
+      <c r="P41" t="n">
+        <v>41642480</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>416</v>
+      </c>
+      <c r="R41" t="n">
         <v>0.224</v>
       </c>
-      <c r="I41" t="n">
-        <v>15000000000000</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="S41" t="n">
+        <v>15</v>
+      </c>
+      <c r="T41" t="n">
         <v>2.7762</v>
       </c>
-      <c r="K41" t="n">
+      <c r="U41" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="V41" t="n">
         <v>6.455806672530161</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2140,39 +6515,144 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
+        <v>52</v>
+      </c>
+      <c r="D42" t="n">
         <v>53</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
+        <v>79</v>
+      </c>
+      <c r="F42" t="n">
+        <v>28</v>
+      </c>
+      <c r="G42" t="n">
+        <v>51</v>
+      </c>
+      <c r="H42" t="n">
         <v>54</v>
       </c>
-      <c r="E42" t="n">
+      <c r="I42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J42" t="n">
         <v>8351109</v>
       </c>
-      <c r="F42" t="n">
+      <c r="K42" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L42" t="n">
         <v>17199425</v>
       </c>
-      <c r="G42" t="n">
+      <c r="M42" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N42" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O42" t="n">
         <v>38400000</v>
       </c>
-      <c r="H42" t="n">
+      <c r="P42" t="n">
+        <v>55599425</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="R42" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="I42" t="n">
-        <v>48000000000000</v>
-      </c>
-      <c r="J42" t="n">
+      <c r="S42" t="n">
+        <v>48</v>
+      </c>
+      <c r="T42" t="n">
         <v>1.1583</v>
       </c>
-      <c r="K42" t="n">
+      <c r="U42" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="V42" t="n">
         <v>5</v>
       </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2181,39 +6661,144 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n">
+        <v>42</v>
+      </c>
+      <c r="D43" t="n">
         <v>44</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
+        <v>88</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="n">
+        <v>38</v>
+      </c>
+      <c r="H43" t="n">
         <v>69</v>
       </c>
-      <c r="E43" t="n">
+      <c r="I43" t="n">
+        <v>-26</v>
+      </c>
+      <c r="J43" t="n">
         <v>918112</v>
       </c>
-      <c r="F43" t="n">
+      <c r="K43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L43" t="n">
         <v>6306897</v>
       </c>
-      <c r="G43" t="n">
+      <c r="M43" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="O43" t="n">
         <v>724392</v>
       </c>
-      <c r="H43" t="n">
+      <c r="P43" t="n">
+        <v>7031289</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
         <v>10</v>
       </c>
-      <c r="I43" t="n">
-        <v>60000000000000</v>
-      </c>
-      <c r="J43" t="n">
+      <c r="S43" t="n">
+        <v>60</v>
+      </c>
+      <c r="T43" t="n">
         <v>0.1172</v>
       </c>
-      <c r="K43" t="n">
+      <c r="U43" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V43" t="n">
         <v>5.4</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2222,39 +6807,144 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C44" t="n">
+        <v>73</v>
+      </c>
+      <c r="D44" t="n">
         <v>81</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
+        <v>89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>68</v>
+      </c>
+      <c r="G44" t="n">
+        <v>21</v>
+      </c>
+      <c r="H44" t="n">
         <v>79</v>
       </c>
-      <c r="E44" t="n">
+      <c r="I44" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" t="n">
         <v>2250430</v>
       </c>
-      <c r="F44" t="n">
+      <c r="K44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L44" t="n">
         <v>12668325</v>
       </c>
-      <c r="G44" t="n">
+      <c r="M44" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O44" t="n">
         <v>2881115.25</v>
       </c>
-      <c r="H44" t="n">
+      <c r="P44" t="n">
+        <v>9459933.666666666</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.433333333333334</v>
+      </c>
+      <c r="R44" t="n">
         <v>25.075</v>
       </c>
-      <c r="I44" t="n">
-        <v>38000000000000</v>
-      </c>
-      <c r="J44" t="n">
+      <c r="S44" t="n">
+        <v>38</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.5647</v>
       </c>
-      <c r="K44" t="n">
+      <c r="U44" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="V44" t="n">
         <v>6.8</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2263,39 +6953,144 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C45" t="n">
+        <v>57</v>
+      </c>
+      <c r="D45" t="n">
         <v>70</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
+        <v>79</v>
+      </c>
+      <c r="F45" t="n">
+        <v>70</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H45" t="n">
         <v>75</v>
       </c>
-      <c r="E45" t="n">
+      <c r="I45" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J45" t="n">
         <v>14504315</v>
       </c>
-      <c r="F45" t="n">
+      <c r="K45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L45" t="n">
         <v>66220028</v>
       </c>
-      <c r="G45" t="n">
+      <c r="M45" t="n">
+        <v>66</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
         <v>9724832</v>
       </c>
-      <c r="H45" t="n">
+      <c r="P45" t="n">
+        <v>75944860</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>759</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.1281</v>
       </c>
-      <c r="I45" t="n">
-        <v>48000000000000</v>
-      </c>
-      <c r="J45" t="n">
+      <c r="S45" t="n">
+        <v>48</v>
+      </c>
+      <c r="T45" t="n">
         <v>1.5822</v>
       </c>
-      <c r="K45" t="n">
+      <c r="U45" t="n">
+        <v>0.3022</v>
+      </c>
+      <c r="V45" t="n">
         <v>6.486193784032172</v>
       </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2304,39 +7099,144 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C46" t="n">
+        <v>88</v>
+      </c>
+      <c r="D46" t="n">
         <v>94</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
+        <v>88</v>
+      </c>
+      <c r="F46" t="n">
+        <v>82</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6</v>
+      </c>
+      <c r="H46" t="n">
         <v>85</v>
       </c>
-      <c r="E46" t="n">
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
         <v>11001961</v>
       </c>
-      <c r="F46" t="n">
+      <c r="K46" t="n">
+        <v>11</v>
+      </c>
+      <c r="L46" t="n">
         <v>40442052</v>
       </c>
-      <c r="G46" t="n">
+      <c r="M46" t="n">
+        <v>40</v>
+      </c>
+      <c r="N46" t="n">
+        <v>186</v>
+      </c>
+      <c r="O46" t="n">
         <v>186435244</v>
       </c>
-      <c r="H46" t="n">
+      <c r="P46" t="n">
+        <v>226877296</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2269</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.8217</v>
       </c>
-      <c r="I46" t="n">
-        <v>40000000000000</v>
-      </c>
-      <c r="J46" t="n">
+      <c r="S46" t="n">
+        <v>40</v>
+      </c>
+      <c r="T46" t="n">
         <v>5.671900000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="U46" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="V46" t="n">
         <v>6.465273369634317</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2345,39 +7245,144 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C47" t="n">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D47" t="n">
         <v>85</v>
       </c>
       <c r="E47" t="n">
+        <v>90</v>
+      </c>
+      <c r="F47" t="n">
+        <v>79</v>
+      </c>
+      <c r="G47" t="n">
+        <v>11</v>
+      </c>
+      <c r="H47" t="n">
+        <v>85</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="J47" t="n">
         <v>338999</v>
       </c>
-      <c r="F47" t="n">
+      <c r="K47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L47" t="n">
         <v>4153783</v>
       </c>
-      <c r="G47" t="n">
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>136.0833777777778</v>
+      </c>
+      <c r="O47" t="n">
         <v>25419</v>
       </c>
-      <c r="H47" t="n">
+      <c r="P47" t="n">
+        <v>4179202</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>42</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.0061</v>
       </c>
-      <c r="I47" t="n">
-        <v>54700000000000</v>
-      </c>
-      <c r="J47" t="n">
+      <c r="S47" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="T47" t="n">
         <v>5.583269230769232</v>
       </c>
-      <c r="K47" t="n">
+      <c r="U47" t="n">
+        <v>0.8302538461538462</v>
+      </c>
+      <c r="V47" t="n">
         <v>6.442958260943271</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2386,39 +7391,144 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="n">
         <v>36</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
+        <v>38</v>
+      </c>
+      <c r="F48" t="n">
+        <v>56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-18</v>
+      </c>
+      <c r="H48" t="n">
         <v>47</v>
       </c>
-      <c r="E48" t="n">
+      <c r="I48" t="n">
+        <v>-11</v>
+      </c>
+      <c r="J48" t="n">
         <v>53807379</v>
       </c>
-      <c r="F48" t="n">
+      <c r="K48" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L48" t="n">
         <v>117450119</v>
       </c>
-      <c r="G48" t="n">
+      <c r="M48" t="n">
+        <v>117</v>
+      </c>
+      <c r="N48" t="n">
+        <v>248</v>
+      </c>
+      <c r="O48" t="n">
         <v>248100000</v>
       </c>
-      <c r="H48" t="n">
+      <c r="P48" t="n">
+        <v>365550119</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3656</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.6787000000000001</v>
       </c>
-      <c r="I48" t="n">
-        <v>22000000000000</v>
-      </c>
-      <c r="J48" t="n">
+      <c r="S48" t="n">
+        <v>22</v>
+      </c>
+      <c r="T48" t="n">
         <v>16.6159</v>
       </c>
-      <c r="K48" t="n">
+      <c r="U48" t="n">
+        <v>2.4458</v>
+      </c>
+      <c r="V48" t="n">
         <v>6.41915547833949</v>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2427,39 +7537,144 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C49" t="n">
+        <v>52</v>
+      </c>
+      <c r="D49" t="n">
         <v>57</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
+        <v>82</v>
+      </c>
+      <c r="F49" t="n">
+        <v>55</v>
+      </c>
+      <c r="G49" t="n">
+        <v>27</v>
+      </c>
+      <c r="H49" t="n">
         <v>69</v>
       </c>
-      <c r="E49" t="n">
+      <c r="I49" t="n">
+        <v>-12</v>
+      </c>
+      <c r="J49" t="n">
         <v>12891123</v>
       </c>
-      <c r="F49" t="n">
+      <c r="K49" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L49" t="n">
         <v>45630104</v>
       </c>
-      <c r="G49" t="n">
+      <c r="M49" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="N49" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="O49" t="n">
         <v>84668080</v>
       </c>
-      <c r="H49" t="n">
+      <c r="P49" t="n">
+        <v>130298184</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="R49" t="n">
         <v>0.6498</v>
       </c>
-      <c r="I49" t="n">
-        <v>90000000000000</v>
-      </c>
-      <c r="J49" t="n">
+      <c r="S49" t="n">
+        <v>90</v>
+      </c>
+      <c r="T49" t="n">
         <v>1.4478</v>
       </c>
-      <c r="K49" t="n">
+      <c r="U49" t="n">
+        <v>0.1432</v>
+      </c>
+      <c r="V49" t="n">
         <v>6.3</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2468,39 +7683,144 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="C50" t="n">
+        <v>78</v>
+      </c>
+      <c r="D50" t="n">
         <v>86</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
+        <v>90</v>
+      </c>
+      <c r="F50" t="n">
+        <v>78</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12</v>
+      </c>
+      <c r="H50" t="n">
         <v>84</v>
       </c>
-      <c r="E50" t="n">
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
         <v>357115007</v>
       </c>
-      <c r="F50" t="n">
+      <c r="K50" t="n">
+        <v>357.1</v>
+      </c>
+      <c r="L50" t="n">
         <v>858373000</v>
       </c>
-      <c r="G50" t="n">
+      <c r="M50" t="n">
+        <v>858.4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1939.4</v>
+      </c>
+      <c r="O50" t="n">
         <v>1939427564</v>
       </c>
-      <c r="H50" t="n">
+      <c r="P50" t="n">
+        <v>2797800564</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2797.8</v>
+      </c>
+      <c r="R50" t="n">
         <v>69.3</v>
       </c>
-      <c r="I50" t="n">
-        <v>356000000000000</v>
-      </c>
-      <c r="J50" t="n">
+      <c r="S50" t="n">
+        <v>356</v>
+      </c>
+      <c r="T50" t="n">
         <v>7.859</v>
       </c>
-      <c r="K50" t="n">
+      <c r="U50" t="n">
+        <v>1.0031</v>
+      </c>
+      <c r="V50" t="n">
         <v>8.4</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,39 +7829,144 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C51" t="n">
+        <v>71</v>
+      </c>
+      <c r="D51" t="n">
         <v>81</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
+        <v>90</v>
+      </c>
+      <c r="F51" t="n">
+        <v>81</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+      <c r="H51" t="n">
         <v>86</v>
       </c>
-      <c r="E51" t="n">
+      <c r="I51" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J51" t="n">
         <v>53505326</v>
       </c>
-      <c r="F51" t="n">
+      <c r="K51" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="L51" t="n">
         <v>56830326</v>
       </c>
-      <c r="G51" t="n">
+      <c r="M51" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="N51" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="O51" t="n">
         <v>102300000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="P51" t="n">
+        <v>159130326</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="R51" t="n">
         <v>64.3</v>
       </c>
-      <c r="I51" t="n">
-        <v>100000000000000</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="S51" t="n">
+        <v>100</v>
+      </c>
+      <c r="T51" t="n">
         <v>1.5913</v>
       </c>
-      <c r="K51" t="n">
+      <c r="U51" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="V51" t="n">
         <v>7</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
         <v>0</v>
       </c>
     </row>

--- a/edited_final.xlsx
+++ b/edited_final.xlsx
@@ -566,77 +566,77 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>action</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>documentary</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>mystery</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>musical</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>fantasy</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>animation</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>sports</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>family</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>thrilled</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>action</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>drama</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>musical</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>sports</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>documentary</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>horror</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>crime</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
@@ -646,22 +646,22 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>western</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>period</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>romantic</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>western</t>
-        </is>
-      </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>war</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -2833,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -4123,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
         <v>0</v>
@@ -4403,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -4844,16 +4844,16 @@
         <v>0</v>
       </c>
       <c r="AC30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>0</v>
@@ -4862,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30" t="n">
         <v>0</v>
@@ -4987,34 +4987,34 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
         <v>0</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="n">
         <v>0</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
@@ -5753,10 +5753,10 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36" t="n">
         <v>0</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" t="n">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
         <v>0</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="n">
         <v>0</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" t="n">
         <v>0</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
@@ -6885,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="AE45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" t="n">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="AG46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AK47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="n">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -7505,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP48" t="n">
         <v>0</v>
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="AB49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
@@ -7627,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
         <v>0</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" t="n">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" t="n">
         <v>0</v>
@@ -7916,13 +7916,13 @@
         <v>0</v>
       </c>
       <c r="AE51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" t="n">
         <v>0</v>
       </c>
       <c r="AG51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH51" t="n">
         <v>0</v>
@@ -7940,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
